--- a/outcome/appendix/data/forecast/HFMD.xlsx
+++ b/outcome/appendix/data/forecast/HFMD.xlsx
@@ -494,16 +494,16 @@
         <v>78852.1596192207</v>
       </c>
       <c r="C4" t="n">
-        <v>-65989.8900122636</v>
+        <v>-261411.367098618</v>
       </c>
       <c r="D4" t="n">
-        <v>-113313.936254694</v>
+        <v>-457589.648380909</v>
       </c>
       <c r="E4" t="n">
-        <v>297905.677930427</v>
+        <v>479767.822620357</v>
       </c>
       <c r="F4" t="n">
-        <v>346789.301654904</v>
+        <v>675946.103902649</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-8931552.11607221</v>
+        <v>-44205770.3894543</v>
       </c>
       <c r="D5" t="n">
-        <v>-13800251.5043194</v>
+        <v>-67747512.9781516</v>
       </c>
       <c r="E5" t="n">
-        <v>9462832.03277132</v>
+        <v>44737050.3061534</v>
       </c>
       <c r="F5" t="n">
-        <v>14331531.4210186</v>
+        <v>68278792.8948507</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-341732404.934296</v>
+        <v>-3474440174.5118</v>
       </c>
       <c r="D6" t="n">
-        <v>-522839589.988682</v>
+        <v>-5313902679.08998</v>
       </c>
       <c r="E6" t="n">
-        <v>342506827.836532</v>
+        <v>3475214597.41404</v>
       </c>
       <c r="F6" t="n">
-        <v>523614012.890919</v>
+        <v>5314677101.99222</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-10464538540.7498</v>
+        <v>-153818762533.514</v>
       </c>
       <c r="D7" t="n">
-        <v>-16004328056.925</v>
+        <v>-235245694234.887</v>
       </c>
       <c r="E7" t="n">
-        <v>10465284465.0096</v>
+        <v>153819508457.773</v>
       </c>
       <c r="F7" t="n">
-        <v>16005073981.1849</v>
+        <v>235246440159.147</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-232634417320.687</v>
+        <v>-5607300644987.13</v>
       </c>
       <c r="D8" t="n">
-        <v>-355783799465.115</v>
+        <v>-8575626463910.27</v>
       </c>
       <c r="E8" t="n">
-        <v>232635023697.902</v>
+        <v>5607301251364.35</v>
       </c>
       <c r="F8" t="n">
-        <v>355784405842.33</v>
+        <v>8575627070287.48</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-3472262392399.66</v>
+        <v>-131842595142811</v>
       </c>
       <c r="D9" t="n">
-        <v>-5310367159860.58</v>
+        <v>-201635849207327</v>
       </c>
       <c r="E9" t="n">
-        <v>3472262726590.9</v>
+        <v>131842595477003</v>
       </c>
       <c r="F9" t="n">
-        <v>5310367494051.82</v>
+        <v>201635849541519</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-68810486110170</v>
+        <v>-6649725246817706</v>
       </c>
       <c r="D10" t="n">
-        <v>-105236557214294</v>
+        <v>-10169877156231930</v>
       </c>
       <c r="E10" t="n">
-        <v>68810486451779.4</v>
+        <v>6649725247159316</v>
       </c>
       <c r="F10" t="n">
-        <v>105236557555904</v>
+        <v>10169877156573538</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-1537674708665012</v>
+        <v>-205764937677119328</v>
       </c>
       <c r="D11" t="n">
-        <v>-2351670529745404</v>
+        <v>-314690315997562560</v>
       </c>
       <c r="E11" t="n">
-        <v>1537674709015182</v>
+        <v>205764937677469472</v>
       </c>
       <c r="F11" t="n">
-        <v>2351670530095574</v>
+        <v>314690315997912768</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-32956573635504524</v>
+        <v>-6073878786655397888</v>
       </c>
       <c r="D12" t="n">
-        <v>-50402729875391944</v>
+        <v>-9289195993645107200</v>
       </c>
       <c r="E12" t="n">
-        <v>32956573635796500</v>
+        <v>6073878786655690752</v>
       </c>
       <c r="F12" t="n">
-        <v>50402729875683928</v>
+        <v>9289195993645398016</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-397035120041374720</v>
+        <v>-146411044491352555520</v>
       </c>
       <c r="D13" t="n">
-        <v>-607212816714099968</v>
+        <v>-223916369701438783488</v>
       </c>
       <c r="E13" t="n">
-        <v>397035120041581952</v>
+        <v>146411044491352752128</v>
       </c>
       <c r="F13" t="n">
-        <v>607212816714307328</v>
+        <v>223916369701438980096</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-3882538621466992640</v>
+        <v>-2342391489759049154560</v>
       </c>
       <c r="D14" t="n">
-        <v>-5937830416856761344</v>
+        <v>-3582378642462109859840</v>
       </c>
       <c r="E14" t="n">
-        <v>3882538621467104256</v>
+        <v>2342391489759049154560</v>
       </c>
       <c r="F14" t="n">
-        <v>5937830416856871936</v>
+        <v>3582378642462109859840</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-61225453310663639040</v>
+        <v>-53358455729748342472704</v>
       </c>
       <c r="D15" t="n">
-        <v>-93636250504711438336</v>
+        <v>-81604715965166510931968</v>
       </c>
       <c r="E15" t="n">
-        <v>61225453310663704576</v>
+        <v>53358455729748342472704</v>
       </c>
       <c r="F15" t="n">
-        <v>93636250504711503872</v>
+        <v>81604715965166510931968</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-4294003737154275508224</v>
+        <v>-4294288986893506662367232</v>
       </c>
       <c r="D16" t="n">
-        <v>-6567112007487830622208</v>
+        <v>-6567548259317662739333120</v>
       </c>
       <c r="E16" t="n">
-        <v>4294003737154275508224</v>
+        <v>4294288986893506662367232</v>
       </c>
       <c r="F16" t="n">
-        <v>6567112007487830622208</v>
+        <v>6567548259317662739333120</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-195346030097530280214528</v>
+        <v>-219100105473275729178263552</v>
       </c>
       <c r="D17" t="n">
-        <v>-298755971907641461964800</v>
+        <v>-335084695210106578156912640</v>
       </c>
       <c r="E17" t="n">
-        <v>195346030097530280214528</v>
+        <v>219100105473275729178263552</v>
       </c>
       <c r="F17" t="n">
-        <v>298755971907641461964800</v>
+        <v>335084695210106578156912640</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-4235527788033413054726144</v>
+        <v>-11591670821783781120927596544</v>
       </c>
       <c r="D18" t="n">
-        <v>-6477680760770900910931968</v>
+        <v>-17727930691329905581132611584</v>
       </c>
       <c r="E18" t="n">
-        <v>4235527788033413054726144</v>
+        <v>11591670821783781120927596544</v>
       </c>
       <c r="F18" t="n">
-        <v>6477680760770900910931968</v>
+        <v>17727930691329905581132611584</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-128764840764149216189612032</v>
+        <v>-297103550487660163116520439808</v>
       </c>
       <c r="D19" t="n">
-        <v>-196928829988608239227371520</v>
+        <v>-454380669721499183984257531904</v>
       </c>
       <c r="E19" t="n">
-        <v>128764840764149216189612032</v>
+        <v>297103550487660163116520439808</v>
       </c>
       <c r="F19" t="n">
-        <v>196928829988608239227371520</v>
+        <v>454380669721499183984257531904</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-1588567107944087542789308416</v>
+        <v>-6783426413238815709591460904960</v>
       </c>
       <c r="D20" t="n">
-        <v>-2429503737738601136700522496</v>
+        <v>-10374355444742414962779375009792</v>
       </c>
       <c r="E20" t="n">
-        <v>1588567107944087542789308416</v>
+        <v>6783426413238815709591460904960</v>
       </c>
       <c r="F20" t="n">
-        <v>2429503737738601136700522496</v>
+        <v>10374355444742414962779375009792</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-18081283430207580130856927232</v>
+        <v>-128592060045933845284527343140864</v>
       </c>
       <c r="D21" t="n">
-        <v>-27652936698187316172932775936</v>
+        <v>-196664584683128755412700651061248</v>
       </c>
       <c r="E21" t="n">
-        <v>18081283430207580130856927232</v>
+        <v>128592060045933845284527343140864</v>
       </c>
       <c r="F21" t="n">
-        <v>27652936698187316172932775936</v>
+        <v>196664584683128755412700651061248</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-232613318275723519349646950400</v>
+        <v>-4709626627729074974328650247176192</v>
       </c>
       <c r="D22" t="n">
-        <v>-355751370762071780186229047296</v>
+        <v>-7202752366079932358971995273035776</v>
       </c>
       <c r="E22" t="n">
-        <v>232613318275723519349646950400</v>
+        <v>4709626627729074974328650247176192</v>
       </c>
       <c r="F22" t="n">
-        <v>355751370762071780186229047296</v>
+        <v>7202752366079932358971995273035776</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-6151437995669011007645146939392</v>
+        <v>-107150113925911711404103466561306624</v>
       </c>
       <c r="D23" t="n">
-        <v>-9407812567822048196098665742336</v>
+        <v>-163871957930078171634085492898660352</v>
       </c>
       <c r="E23" t="n">
-        <v>6151437995669011007645146939392</v>
+        <v>107150113925911711404103466561306624</v>
       </c>
       <c r="F23" t="n">
-        <v>9407812567822048196098665742336</v>
+        <v>163871957930078171634085492898660352</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-77602019908861743893981975019520</v>
+        <v>-3830673335494996361603913514443866112</v>
       </c>
       <c r="D24" t="n">
-        <v>-118682047791260669795317957263360</v>
+        <v>-5858509306972413549814364144830251008</v>
       </c>
       <c r="E24" t="n">
-        <v>77602019908861743893981975019520</v>
+        <v>3830673335494996361603913514443866112</v>
       </c>
       <c r="F24" t="n">
-        <v>118682047791260669795317957263360</v>
+        <v>5858509306972413549814364144830251008</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-1118890828312556271270762886725632</v>
+        <v>-69955839392617352725771002648031395840</v>
       </c>
       <c r="D25" t="n">
-        <v>-1711195854372726897882353255841792</v>
+        <v>-106988223809420034766306334447228682240</v>
       </c>
       <c r="E25" t="n">
-        <v>1118890828312556271270762886725632</v>
+        <v>69955839392617352725771002648031395840</v>
       </c>
       <c r="F25" t="n">
-        <v>1711195854372726897882353255841792</v>
+        <v>106988223809420034766306334447228682240</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-11280540086631815721857304785584128</v>
+        <v>-733499501937534956300630397519537373184</v>
       </c>
       <c r="D26" t="n">
-        <v>-17252097293926047187323773758996480</v>
+        <v>-1121790683361779315601302478819633922048</v>
       </c>
       <c r="E26" t="n">
-        <v>11280540086631815721857304785584128</v>
+        <v>733499501937534956300630397519537373184</v>
       </c>
       <c r="F26" t="n">
-        <v>17252097293926047187323773758996480</v>
+        <v>1121790683361779315601302478819633922048</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-111726390153383719826089399665295360</v>
+        <v>-9259942616875050095041303280560730275840</v>
       </c>
       <c r="D27" t="n">
-        <v>-170870768458112113311027161368363008</v>
+        <v>-14161860135741096670284396153206235725824</v>
       </c>
       <c r="E27" t="n">
-        <v>111726390153383719826089399665295360</v>
+        <v>9259942616875050095041303280560730275840</v>
       </c>
       <c r="F27" t="n">
-        <v>170870768458112113311027161368363008</v>
+        <v>14161860135741096670284396153206235725824</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-6340700413191485614071104873017901056</v>
+        <v>-879683476034649425059009068949583326871552</v>
       </c>
       <c r="D28" t="n">
-        <v>-9697264457191319100484830618309361664</v>
+        <v>-1345359778863234838040126438722860480462848</v>
       </c>
       <c r="E28" t="n">
-        <v>6340700413191485614071104873017901056</v>
+        <v>879683476034649425059009068949583326871552</v>
       </c>
       <c r="F28" t="n">
-        <v>9697264457191319100484830618309361664</v>
+        <v>1345359778863234838040126438722860480462848</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-252265023974796039271576129712712318976</v>
+        <v>-20956384590324125087571601001651331045261312</v>
       </c>
       <c r="D29" t="n">
-        <v>-385806061061322295716428378248174370816</v>
+        <v>-32050024476191084435572223355556502404333568</v>
       </c>
       <c r="E29" t="n">
-        <v>252265023974796039271576129712712318976</v>
+        <v>20956384590324125087571601001651331045261312</v>
       </c>
       <c r="F29" t="n">
-        <v>385806061061322295716428378248174370816</v>
+        <v>32050024476191084435572223355556502404333568</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-4473777383615233109026222466973281812480</v>
+        <v>-923528054612346896949778181864692982791274496</v>
       </c>
       <c r="D30" t="n">
-        <v>-6842052073815307037526189981255371587584</v>
+        <v>-1412414275334553619460977119312592066509275136</v>
       </c>
       <c r="E30" t="n">
-        <v>4473777383615233109026222466973281812480</v>
+        <v>923528054612346896949778181864692982791274496</v>
       </c>
       <c r="F30" t="n">
-        <v>6842052073815307037526189981255371587584</v>
+        <v>1412414275334553619460977119312592066509275136</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-109806134229530332488529165745495348346880</v>
+        <v>-10978990233555828890879173168608200162619162624</v>
       </c>
       <c r="D31" t="n">
-        <v>-167933990451639221602854266144538683768832</v>
+        <v>-16790916591204092196279186205120065209962070016</v>
       </c>
       <c r="E31" t="n">
-        <v>109806134229530332488529165745495348346880</v>
+        <v>10978990233555828890879173168608200162619162624</v>
       </c>
       <c r="F31" t="n">
-        <v>167933990451639221602854266144538683768832</v>
+        <v>16790916591204092196279186205120065209962070016</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-1310577536920419890134226704713476177133568</v>
+        <v>-365391084048507599490040238561543541074545344512</v>
       </c>
       <c r="D32" t="n">
-        <v>-2004355377007137500749034684871701398814720</v>
+        <v>-558817439938743467967370133409759269065030893568</v>
       </c>
       <c r="E32" t="n">
-        <v>1310577536920419890134226704713476177133568</v>
+        <v>365391084048507599490040238561543541074545344512</v>
       </c>
       <c r="F32" t="n">
-        <v>2004355377007137500749034684871701398814720</v>
+        <v>558817439938743467967370133409759269065030893568</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-12996681077866668222226372408760235502600192</v>
+        <v>-5102459101709070211676634732310438409055735119872</v>
       </c>
       <c r="D33" t="n">
-        <v>-19876708449376365796814039882607568340647936</v>
+        <v>-7803537790294501432249784692214441584466530926592</v>
       </c>
       <c r="E33" t="n">
-        <v>12996681077866668222226372408760235502600192</v>
+        <v>5102459101709070211676634732310438409055735119872</v>
       </c>
       <c r="F33" t="n">
-        <v>19876708449376365796814039882607568340647936</v>
+        <v>7803537790294501432249784692214441584466530926592</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-128304509832390838933102435174334488452792320</v>
+        <v>-130892259994985105253868511236934582046407983628288</v>
       </c>
       <c r="D34" t="n">
-        <v>-196224814581446117820698583877350568434335744</v>
+        <v>-200182436932379064390135308431775688624050416910336</v>
       </c>
       <c r="E34" t="n">
-        <v>128304509832390838933102435174334488452792320</v>
+        <v>130892259994985105253868511236934582046407983628288</v>
       </c>
       <c r="F34" t="n">
-        <v>196224814581446117820698583877350568434335744</v>
+        <v>200182436932379064390135308431775688624050416910336</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-2579295899094453675138162827063786911289049088</v>
+        <v>-2503675096303947989453832891983943960350400794591232</v>
       </c>
       <c r="D35" t="n">
-        <v>-3944692670675879610309133805514141266807357440</v>
+        <v>-3829040632992625667435543460376193231633675171397632</v>
       </c>
       <c r="E35" t="n">
-        <v>2579295899094453675138162827063786911289049088</v>
+        <v>2503675096303947989453832891983943960350400794591232</v>
       </c>
       <c r="F35" t="n">
-        <v>3944692670675879610309133805514141266807357440</v>
+        <v>3829040632992625667435543460376193231633675171397632</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-33892287067302898532819048987041457374501011456</v>
+        <v>-31487535272919255705783302767422747895421751602970624</v>
       </c>
       <c r="D36" t="n">
-        <v>-51833780076869255783307754522442225335746428928</v>
+        <v>-48156029578591720533706562018916330415777747254116352</v>
       </c>
       <c r="E36" t="n">
-        <v>33892287067302898532819048987041457374501011456</v>
+        <v>31487535272919255705783302767422747895421751602970624</v>
       </c>
       <c r="F36" t="n">
-        <v>51833780076869255783307754522442225335746428928</v>
+        <v>48156029578591720533706562018916330415777747254116352</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>104766.96074782</v>
       </c>
       <c r="C37" t="n">
-        <v>-521620653166528451176852855030792498491080835072</v>
+        <v>-619951752437881575889329687292155407345756681057337344</v>
       </c>
       <c r="D37" t="n">
-        <v>-797749947240085784062727042200015645381733908480</v>
+        <v>-948134386160563628727405121044048025803507688666038272</v>
       </c>
       <c r="E37" t="n">
-        <v>521620653166528451176852855030792498491080835072</v>
+        <v>619951752437881575889329687292155407345756681057337344</v>
       </c>
       <c r="F37" t="n">
-        <v>797749947240085784062727042200015645381733908480</v>
+        <v>948134386160563628727405121044048025803507688666038272</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>65198.7757235088</v>
       </c>
       <c r="C38" t="n">
-        <v>-3394889371290656026207768531612568381446223298560</v>
+        <v>-1553899201118937660803982774672381719812615324200599552</v>
       </c>
       <c r="D38" t="n">
-        <v>-5192035247056115298661933054454690199925407350784</v>
+        <v>-2376483749605849742968485508994359721543174719704924160</v>
       </c>
       <c r="E38" t="n">
-        <v>3394889371290656026207768531612568381446223298560</v>
+        <v>1553899201118937660803982774672381719812615324200599552</v>
       </c>
       <c r="F38" t="n">
-        <v>5192035247056115298661933054454690199925407350784</v>
+        <v>2376483749605849742968485508994359721543174719704924160</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>43331.9280419069</v>
       </c>
       <c r="C39" t="n">
-        <v>-24620916800131089441060675881700484838203596996608</v>
+        <v>-10678278477776825214951225393441204875902660025362939904</v>
       </c>
       <c r="D39" t="n">
-        <v>-37654442858182955640500673840764982783756405309440</v>
+        <v>-16331017647688549924454102637616597316053211015641300992</v>
       </c>
       <c r="E39" t="n">
-        <v>24620916800131089441060675881700484838203596996608</v>
+        <v>10678278477776825214951225393441204875902660025362939904</v>
       </c>
       <c r="F39" t="n">
-        <v>37654442858182955640500673840764982783756405309440</v>
+        <v>16331017647688549924454102637616597316053211015641300992</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>82468.1290881552</v>
       </c>
       <c r="C40" t="n">
-        <v>-894930798037903703207454387202026703178993927979008</v>
+        <v>-1738665037432269503275323340387032158356897047393331052544</v>
       </c>
       <c r="D40" t="n">
-        <v>-1368678545575804742690338514857940764353318048759808</v>
+        <v>-2659058711459735487976794143078597351819732550576976691200</v>
       </c>
       <c r="E40" t="n">
-        <v>894930798037903703207454387202026703178993927979008</v>
+        <v>1738665037432269503275323340387032158356897047393331052544</v>
       </c>
       <c r="F40" t="n">
-        <v>1368678545575804742690338514857940764353318048759808</v>
+        <v>2659058711459735487976794143078597351819732550576976691200</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/HFMD.xlsx
+++ b/outcome/appendix/data/forecast/HFMD.xlsx
@@ -494,16 +494,16 @@
         <v>78852.1596192207</v>
       </c>
       <c r="C4" t="n">
-        <v>-261411.367098618</v>
+        <v>-65989.8900122636</v>
       </c>
       <c r="D4" t="n">
-        <v>-457589.648380909</v>
+        <v>-113313.936254694</v>
       </c>
       <c r="E4" t="n">
-        <v>479767.822620357</v>
+        <v>297905.677930427</v>
       </c>
       <c r="F4" t="n">
-        <v>675946.103902649</v>
+        <v>346789.301654904</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-44205770.3894543</v>
+        <v>-6594818.03060634</v>
       </c>
       <c r="D5" t="n">
-        <v>-67747512.9781516</v>
+        <v>-10226525.1150781</v>
       </c>
       <c r="E5" t="n">
-        <v>44737050.3061534</v>
+        <v>7126097.94730545</v>
       </c>
       <c r="F5" t="n">
-        <v>68278792.8948507</v>
+        <v>10757805.0317772</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-3474440174.5118</v>
+        <v>-318256965.423947</v>
       </c>
       <c r="D6" t="n">
-        <v>-5313902679.08998</v>
+        <v>-486937003.468896</v>
       </c>
       <c r="E6" t="n">
-        <v>3475214597.41404</v>
+        <v>319031388.326184</v>
       </c>
       <c r="F6" t="n">
-        <v>5314677101.99222</v>
+        <v>487711426.371133</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-153818762533.514</v>
+        <v>-6737419518.93077</v>
       </c>
       <c r="D7" t="n">
-        <v>-235245694234.887</v>
+        <v>-10304191405.9623</v>
       </c>
       <c r="E7" t="n">
-        <v>153819508457.773</v>
+        <v>6738165443.19064</v>
       </c>
       <c r="F7" t="n">
-        <v>235246440159.147</v>
+        <v>10304937330.2222</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-5607300644987.13</v>
+        <v>-97491312993.9423</v>
       </c>
       <c r="D8" t="n">
-        <v>-8575626463910.27</v>
+        <v>-149100257139.763</v>
       </c>
       <c r="E8" t="n">
-        <v>5607301251364.35</v>
+        <v>97491919371.1577</v>
       </c>
       <c r="F8" t="n">
-        <v>8575627070287.48</v>
+        <v>149100863516.978</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-131842595142811</v>
+        <v>-955330988612.002</v>
       </c>
       <c r="D9" t="n">
-        <v>-201635849207327</v>
+        <v>-1461052754095.48</v>
       </c>
       <c r="E9" t="n">
-        <v>131842595477003</v>
+        <v>955331322803.243</v>
       </c>
       <c r="F9" t="n">
-        <v>201635849541519</v>
+        <v>1461053088286.72</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-6649725246817706</v>
+        <v>-16473870946969.9</v>
       </c>
       <c r="D10" t="n">
-        <v>-10169877156231930</v>
+        <v>-25194611536506.4</v>
       </c>
       <c r="E10" t="n">
-        <v>6649725247159316</v>
+        <v>16473871288579.4</v>
       </c>
       <c r="F10" t="n">
-        <v>10169877156573538</v>
+        <v>25194611878115.9</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-205764937677119328</v>
+        <v>-256548235134726</v>
       </c>
       <c r="D11" t="n">
-        <v>-314690315997562560</v>
+        <v>-392356667338998</v>
       </c>
       <c r="E11" t="n">
-        <v>205764937677469472</v>
+        <v>256548235484895</v>
       </c>
       <c r="F11" t="n">
-        <v>314690315997912768</v>
+        <v>392356667689168</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-6073878786655397888</v>
+        <v>-2144094020730144</v>
       </c>
       <c r="D12" t="n">
-        <v>-9289195993645107200</v>
+        <v>-3279108834307414</v>
       </c>
       <c r="E12" t="n">
-        <v>6073878786655690752</v>
+        <v>2144094021022121</v>
       </c>
       <c r="F12" t="n">
-        <v>9289195993645398016</v>
+        <v>3279108834599392</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-146411044491352555520</v>
+        <v>-26752762090795040</v>
       </c>
       <c r="D13" t="n">
-        <v>-223916369701438783488</v>
+        <v>-40914818876378800</v>
       </c>
       <c r="E13" t="n">
-        <v>146411044491352752128</v>
+        <v>26752762091002280</v>
       </c>
       <c r="F13" t="n">
-        <v>223916369701438980096</v>
+        <v>40914818876586048</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-2342391489759049154560</v>
+        <v>-151734290337977280</v>
       </c>
       <c r="D14" t="n">
-        <v>-3582378642462109859840</v>
+        <v>-232057571679402880</v>
       </c>
       <c r="E14" t="n">
-        <v>2342391489759049154560</v>
+        <v>151734290338088896</v>
       </c>
       <c r="F14" t="n">
-        <v>3582378642462109859840</v>
+        <v>232057571679514496</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-53358455729748342472704</v>
+        <v>-1161415469987238912</v>
       </c>
       <c r="D15" t="n">
-        <v>-81604715965166510931968</v>
+        <v>-1776231681551832832</v>
       </c>
       <c r="E15" t="n">
-        <v>53358455729748342472704</v>
+        <v>1161415469987303936</v>
       </c>
       <c r="F15" t="n">
-        <v>81604715965166510931968</v>
+        <v>1776231681551897856</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-4294288986893506662367232</v>
+        <v>-52030155881761112064</v>
       </c>
       <c r="D16" t="n">
-        <v>-6567548259317662739333120</v>
+        <v>-79573256652315066368</v>
       </c>
       <c r="E16" t="n">
-        <v>4294288986893506662367232</v>
+        <v>52030155881761325056</v>
       </c>
       <c r="F16" t="n">
-        <v>6567548259317662739333120</v>
+        <v>79573256652315295744</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-219100105473275729178263552</v>
+        <v>-1967286355555165143040</v>
       </c>
       <c r="D17" t="n">
-        <v>-335084695210106578156912640</v>
+        <v>-3008704844839106641920</v>
       </c>
       <c r="E17" t="n">
-        <v>219100105473275729178263552</v>
+        <v>1967286355555165667328</v>
       </c>
       <c r="F17" t="n">
-        <v>335084695210106578156912640</v>
+        <v>3008704844839107690496</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-11591670821783781120927596544</v>
+        <v>-39088601199336868544512</v>
       </c>
       <c r="D18" t="n">
-        <v>-17727930691329905581132611584</v>
+        <v>-59780856749367484219392</v>
       </c>
       <c r="E18" t="n">
-        <v>11591670821783781120927596544</v>
+        <v>39088601199336868544512</v>
       </c>
       <c r="F18" t="n">
-        <v>17727930691329905581132611584</v>
+        <v>59780856749367484219392</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-297103550487660163116520439808</v>
+        <v>-785950907098419695714304</v>
       </c>
       <c r="D19" t="n">
-        <v>-454380669721499183984257531904</v>
+        <v>-1202008185191419682488320</v>
       </c>
       <c r="E19" t="n">
-        <v>297103550487660163116520439808</v>
+        <v>785950907098419695714304</v>
       </c>
       <c r="F19" t="n">
-        <v>454380669721499183984257531904</v>
+        <v>1202008185191419682488320</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-6783426413238815709591460904960</v>
+        <v>-7820074587121858061008896</v>
       </c>
       <c r="D20" t="n">
-        <v>-10374355444742414962779375009792</v>
+        <v>-11959772013280224939606016</v>
       </c>
       <c r="E20" t="n">
-        <v>6783426413238815709591460904960</v>
+        <v>7820074587121858061008896</v>
       </c>
       <c r="F20" t="n">
-        <v>10374355444742414962779375009792</v>
+        <v>11959772013280224939606016</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-128592060045933845284527343140864</v>
+        <v>-104073518468147111977287680</v>
       </c>
       <c r="D21" t="n">
-        <v>-196664584683128755412700651061248</v>
+        <v>-159166711216376349580066816</v>
       </c>
       <c r="E21" t="n">
-        <v>128592060045933845284527343140864</v>
+        <v>104073518468147111977287680</v>
       </c>
       <c r="F21" t="n">
-        <v>196664584683128755412700651061248</v>
+        <v>159166711216376349580066816</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-4709626627729074974328650247176192</v>
+        <v>-1344314399956459383085334528</v>
       </c>
       <c r="D22" t="n">
-        <v>-7202752366079932358971995273035776</v>
+        <v>-2055951456540542080032702464</v>
       </c>
       <c r="E22" t="n">
-        <v>4709626627729074974328650247176192</v>
+        <v>1344314399956459383085334528</v>
       </c>
       <c r="F22" t="n">
-        <v>7202752366079932358971995273035776</v>
+        <v>2055951456540542080032702464</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-107150113925911711404103466561306624</v>
+        <v>-25341354837580995712704839680</v>
       </c>
       <c r="D23" t="n">
-        <v>-163871957930078171634085492898660352</v>
+        <v>-38756257755420032936422932480</v>
       </c>
       <c r="E23" t="n">
-        <v>107150113925911711404103466561306624</v>
+        <v>25341354837580995712704839680</v>
       </c>
       <c r="F23" t="n">
-        <v>163871957930078171634085492898660352</v>
+        <v>38756257755420032936422932480</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-3830673335494996361603913514443866112</v>
+        <v>-293187673357317726971031977984</v>
       </c>
       <c r="D24" t="n">
-        <v>-5858509306972413549814364144830251008</v>
+        <v>-448391852455224202110357733376</v>
       </c>
       <c r="E24" t="n">
-        <v>3830673335494996361603913514443866112</v>
+        <v>293187673357317726971031977984</v>
       </c>
       <c r="F24" t="n">
-        <v>5858509306972413549814364144830251008</v>
+        <v>448391852455224202110357733376</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-69955839392617352725771002648031395840</v>
+        <v>-4917989436923818684715676729344</v>
       </c>
       <c r="D25" t="n">
-        <v>-106988223809420034766306334447228682240</v>
+        <v>-7521415783705071116928340197376</v>
       </c>
       <c r="E25" t="n">
-        <v>69955839392617352725771002648031395840</v>
+        <v>4917989436923818684715676729344</v>
       </c>
       <c r="F25" t="n">
-        <v>106988223809420034766306334447228682240</v>
+        <v>7521415783705071116928340197376</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-733499501937534956300630397519537373184</v>
+        <v>-25407589177023894479769710886912</v>
       </c>
       <c r="D26" t="n">
-        <v>-1121790683361779315601302478819633922048</v>
+        <v>-38857554436207680106026575593472</v>
       </c>
       <c r="E26" t="n">
-        <v>733499501937534956300630397519537373184</v>
+        <v>25407589177023894479769710886912</v>
       </c>
       <c r="F26" t="n">
-        <v>1121790683361779315601302478819633922048</v>
+        <v>38857554436207680106026575593472</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-9259942616875050095041303280560730275840</v>
+        <v>-188384363665602671685274412515328</v>
       </c>
       <c r="D27" t="n">
-        <v>-14161860135741096670284396153206235725824</v>
+        <v>-288109021877845978285178672381952</v>
       </c>
       <c r="E27" t="n">
-        <v>9259942616875050095041303280560730275840</v>
+        <v>188384363665602671685274412515328</v>
       </c>
       <c r="F27" t="n">
-        <v>14161860135741096670284396153206235725824</v>
+        <v>288109021877845978285178672381952</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-879683476034649425059009068949583326871552</v>
+        <v>-6065466799897826366210793604644864</v>
       </c>
       <c r="D28" t="n">
-        <v>-1345359778863234838040126438722860480462848</v>
+        <v>-9276330970085667456772769167966208</v>
       </c>
       <c r="E28" t="n">
-        <v>879683476034649425059009068949583326871552</v>
+        <v>6065466799897826366210793604644864</v>
       </c>
       <c r="F28" t="n">
-        <v>1345359778863234838040126438722860480462848</v>
+        <v>9276330970085667456772769167966208</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-20956384590324125087571601001651331045261312</v>
+        <v>-296354351645485956689923235066675200</v>
       </c>
       <c r="D29" t="n">
-        <v>-32050024476191084435572223355556502404333568</v>
+        <v>-453234868969192640086935828986593280</v>
       </c>
       <c r="E29" t="n">
-        <v>20956384590324125087571601001651331045261312</v>
+        <v>296354351645485956689923235066675200</v>
       </c>
       <c r="F29" t="n">
-        <v>32050024476191084435572223355556502404333568</v>
+        <v>453234868969192640086935828986593280</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-923528054612346896949778181864692982791274496</v>
+        <v>-3905975789493279925909659147044913152</v>
       </c>
       <c r="D30" t="n">
-        <v>-1412414275334553619460977119312592066509275136</v>
+        <v>-5973674472192590586724416709520785408</v>
       </c>
       <c r="E30" t="n">
-        <v>923528054612346896949778181864692982791274496</v>
+        <v>3905975789493279925909659147044913152</v>
       </c>
       <c r="F30" t="n">
-        <v>1412414275334553619460977119312592066509275136</v>
+        <v>5973674472192590586724416709520785408</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-10978990233555828890879173168608200162619162624</v>
+        <v>-97634133177502922832964195688730591232</v>
       </c>
       <c r="D31" t="n">
-        <v>-16790916591204092196279186205120065209962070016</v>
+        <v>-149318521263226670465725030051558195200</v>
       </c>
       <c r="E31" t="n">
-        <v>10978990233555828890879173168608200162619162624</v>
+        <v>97634133177502922832964195688730591232</v>
       </c>
       <c r="F31" t="n">
-        <v>16790916591204092196279186205120065209962070016</v>
+        <v>149318521263226670465725030051558195200</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-365391084048507599490040238561543541074545344512</v>
+        <v>-838302359154096349247839389705062842368</v>
       </c>
       <c r="D32" t="n">
-        <v>-558817439938743467967370133409759269065030893568</v>
+        <v>-1282072821938126190350956267490684960768</v>
       </c>
       <c r="E32" t="n">
-        <v>365391084048507599490040238561543541074545344512</v>
+        <v>838302359154096349247839389705062842368</v>
       </c>
       <c r="F32" t="n">
-        <v>558817439938743467967370133409759269065030893568</v>
+        <v>1282072821938126190350956267490684960768</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-5102459101709070211676634732310438409055735119872</v>
+        <v>-8112952541746290010356243666666640113664</v>
       </c>
       <c r="D33" t="n">
-        <v>-7803537790294501432249784692214441584466530926592</v>
+        <v>-12407690191809159500342589736589243449344</v>
       </c>
       <c r="E33" t="n">
-        <v>5102459101709070211676634732310438409055735119872</v>
+        <v>8112952541746290010356243666666640113664</v>
       </c>
       <c r="F33" t="n">
-        <v>7803537790294501432249784692214441584466530926592</v>
+        <v>12407690191809159500342589736589243449344</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-130892259994985105253868511236934582046407983628288</v>
+        <v>-109940857040871842215417766257407888982016</v>
       </c>
       <c r="D34" t="n">
-        <v>-200182436932379064390135308431775688624050416910336</v>
+        <v>-168140031211312527095837862760103268057088</v>
       </c>
       <c r="E34" t="n">
-        <v>130892259994985105253868511236934582046407983628288</v>
+        <v>109940857040871842215417766257407888982016</v>
       </c>
       <c r="F34" t="n">
-        <v>200182436932379064390135308431775688624050416910336</v>
+        <v>168140031211312527095837862760103268057088</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-2503675096303947989453832891983943960350400794591232</v>
+        <v>-1736512952838480957176557587841317743886336</v>
       </c>
       <c r="D35" t="n">
-        <v>-3829040632992625667435543460376193231633675171397632</v>
+        <v>-2655767382098581976530529695181496798674944</v>
       </c>
       <c r="E35" t="n">
-        <v>2503675096303947989453832891983943960350400794591232</v>
+        <v>1736512952838480957176557587841317743886336</v>
       </c>
       <c r="F35" t="n">
-        <v>3829040632992625667435543460376193231633675171397632</v>
+        <v>2655767382098581976530529695181496798674944</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-31487535272919255705783302767422747895421751602970624</v>
+        <v>-22982839720582311505366989962377445601443840</v>
       </c>
       <c r="D36" t="n">
-        <v>-48156029578591720533706562018916330415777747254116352</v>
+        <v>-35149220153038192758345293838742036351549440</v>
       </c>
       <c r="E36" t="n">
-        <v>31487535272919255705783302767422747895421751602970624</v>
+        <v>22982839720582311505366989962377445601443840</v>
       </c>
       <c r="F36" t="n">
-        <v>48156029578591720533706562018916330415777747254116352</v>
+        <v>35149220153038192758345293838742036351549440</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>104766.96074782</v>
       </c>
       <c r="C37" t="n">
-        <v>-619951752437881575889329687292155407345756681057337344</v>
+        <v>-231275541122772342684267781286223518441144320</v>
       </c>
       <c r="D37" t="n">
-        <v>-948134386160563628727405121044048025803507688666038272</v>
+        <v>-353705417162061457994428302549528377292750848</v>
       </c>
       <c r="E37" t="n">
-        <v>619951752437881575889329687292155407345756681057337344</v>
+        <v>231275541122772342684267781286223518441144320</v>
       </c>
       <c r="F37" t="n">
-        <v>948134386160563628727405121044048025803507688666038272</v>
+        <v>353705417162061457994428302549528377292750848</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>65198.7757235088</v>
       </c>
       <c r="C38" t="n">
-        <v>-1553899201118937660803982774672381719812615324200599552</v>
+        <v>-1096510179164376488717669685562153795942612992</v>
       </c>
       <c r="D38" t="n">
-        <v>-2376483749605849742968485508994359721543174719704924160</v>
+        <v>-1676967605225047388997214127656852199793754112</v>
       </c>
       <c r="E38" t="n">
-        <v>1553899201118937660803982774672381719812615324200599552</v>
+        <v>1096510179164376488717669685562153795942612992</v>
       </c>
       <c r="F38" t="n">
-        <v>2376483749605849742968485508994359721543174719704924160</v>
+        <v>1676967605225047388997214127656852199793754112</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>43331.9280419069</v>
       </c>
       <c r="C39" t="n">
-        <v>-10678278477776825214951225393441204875902660025362939904</v>
+        <v>-5124018839687616215785125488828110555582562304</v>
       </c>
       <c r="D39" t="n">
-        <v>-16331017647688549924454102637616597316053211015641300992</v>
+        <v>-7836510564149382776282038430561307135683067904</v>
       </c>
       <c r="E39" t="n">
-        <v>10678278477776825214951225393441204875902660025362939904</v>
+        <v>5124018839687616215785125488828110555582562304</v>
       </c>
       <c r="F39" t="n">
-        <v>16331017647688549924454102637616597316053211015641300992</v>
+        <v>7836510564149382776282038430561307135683067904</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>82468.1290881552</v>
       </c>
       <c r="C40" t="n">
-        <v>-1738665037432269503275323340387032158356897047393331052544</v>
+        <v>-210712825278392694668797554131396764167317749760</v>
       </c>
       <c r="D40" t="n">
-        <v>-2659058711459735487976794143078597351819732550576976691200</v>
+        <v>-322257457077686162687790891990740617249490468864</v>
       </c>
       <c r="E40" t="n">
-        <v>1738665037432269503275323340387032158356897047393331052544</v>
+        <v>210712825278392694668797554131396764167317749760</v>
       </c>
       <c r="F40" t="n">
-        <v>2659058711459735487976794143078597351819732550576976691200</v>
+        <v>322257457077686162687790891990740617249490468864</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/HFMD.xlsx
+++ b/outcome/appendix/data/forecast/HFMD.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">手足口病</t>
+    <t xml:space="preserve">HFMD</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>43495.1857244249</v>
+        <v>43248.2830208865</v>
       </c>
       <c r="C2" t="n">
-        <v>-38933.206821492</v>
+        <v>-41160.091871201</v>
       </c>
       <c r="D2" t="n">
-        <v>-66257.5812702765</v>
+        <v>-69041.3365383441</v>
       </c>
       <c r="E2" t="n">
-        <v>123757.274331728</v>
+        <v>122660.758065313</v>
       </c>
       <c r="F2" t="n">
-        <v>155492.456809289</v>
+        <v>154487.724716126</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>15140.1857244249</v>
+        <v>14893.2830208865</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>32187.7604216341</v>
+        <v>32712.4132969273</v>
       </c>
       <c r="C3" t="n">
-        <v>-91050.1676343404</v>
+        <v>-95784.1926124718</v>
       </c>
       <c r="D3" t="n">
-        <v>-129690.734347143</v>
+        <v>-135212.245445185</v>
       </c>
       <c r="E3" t="n">
-        <v>227222.925573745</v>
+        <v>222951.113461148</v>
       </c>
       <c r="F3" t="n">
-        <v>270054.239295727</v>
+        <v>266608.798927979</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>28924.7604216341</v>
+        <v>29449.4132969273</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>78852.1596192207</v>
+        <v>79112.6188186207</v>
       </c>
       <c r="C4" t="n">
-        <v>-65989.8900122636</v>
+        <v>-172924.805477833</v>
       </c>
       <c r="D4" t="n">
-        <v>-113313.936254694</v>
+        <v>-311712.379918285</v>
       </c>
       <c r="E4" t="n">
-        <v>297905.677930427</v>
+        <v>351427.132435293</v>
       </c>
       <c r="F4" t="n">
-        <v>346789.301654904</v>
+        <v>490214.706875744</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>75983.1596192207</v>
+        <v>76243.6188186207</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>181979.954122606</v>
+        <v>187770.228301992</v>
       </c>
       <c r="C5" t="n">
-        <v>-6594818.03060634</v>
+        <v>-24120877.4926542</v>
       </c>
       <c r="D5" t="n">
-        <v>-10226525.1150781</v>
+        <v>-37018746.9246502</v>
       </c>
       <c r="E5" t="n">
-        <v>7126097.94730545</v>
+        <v>24608433.1742695</v>
       </c>
       <c r="F5" t="n">
-        <v>10757805.0317772</v>
+        <v>37506302.6062655</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>178978.954122606</v>
+        <v>184769.228301992</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>307981.558251585</v>
+        <v>315234.65232728</v>
       </c>
       <c r="C6" t="n">
-        <v>-318256965.423947</v>
+        <v>-925446149.83938</v>
       </c>
       <c r="D6" t="n">
-        <v>-486937003.468896</v>
+        <v>-1415554273.17938</v>
       </c>
       <c r="E6" t="n">
-        <v>319031388.326184</v>
+        <v>926226417.365548</v>
       </c>
       <c r="F6" t="n">
-        <v>487711426.371133</v>
+        <v>1416334540.70555</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>304062.558251585</v>
+        <v>311315.65232728</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>334364.218096093</v>
+        <v>345021.73963972</v>
       </c>
       <c r="C7" t="n">
-        <v>-6737419518.93077</v>
+        <v>-32486870623.6693</v>
       </c>
       <c r="D7" t="n">
-        <v>-10304191405.9623</v>
+        <v>-49684598249.8072</v>
       </c>
       <c r="E7" t="n">
-        <v>6738165443.19064</v>
+        <v>32487691002.7873</v>
       </c>
       <c r="F7" t="n">
-        <v>10304937330.2222</v>
+        <v>49685418628.9253</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>328104.218096093</v>
+        <v>338761.73963972</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>288070.149698339</v>
+        <v>281085.666557611</v>
       </c>
       <c r="C8" t="n">
-        <v>-97491312993.9423</v>
+        <v>-416908452682.811</v>
       </c>
       <c r="D8" t="n">
-        <v>-149100257139.763</v>
+        <v>-637606604717.328</v>
       </c>
       <c r="E8" t="n">
-        <v>97491919371.1577</v>
+        <v>416909013900.247</v>
       </c>
       <c r="F8" t="n">
-        <v>149100863516.978</v>
+        <v>637607165934.764</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>228927.149698339</v>
+        <v>221942.666557611</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,28 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>177333.081101109</v>
+        <v>169546.669796812</v>
       </c>
       <c r="C9" t="n">
-        <v>-955330988612.002</v>
+        <v>-4077939847096.1</v>
       </c>
       <c r="D9" t="n">
-        <v>-1461052754095.48</v>
+        <v>-6236670880485.35</v>
       </c>
       <c r="E9" t="n">
-        <v>955331322803.243</v>
+        <v>4077940139671.21</v>
       </c>
       <c r="F9" t="n">
-        <v>1461053088286.72</v>
+        <v>6236671173060.46</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>26778</v>
+        <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>150555.081101109</v>
+        <v>110403.669796812</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>178895.417506343</v>
+        <v>166813.748738375</v>
       </c>
       <c r="C10" t="n">
-        <v>-16473870946969.9</v>
+        <v>-56638288158800</v>
       </c>
       <c r="D10" t="n">
-        <v>-25194611536506.4</v>
+        <v>-86620786877749.9</v>
       </c>
       <c r="E10" t="n">
-        <v>16473871288579.4</v>
+        <v>56638288437793.3</v>
       </c>
       <c r="F10" t="n">
-        <v>25194611878115.9</v>
+        <v>86620787156743.3</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>63725.4175063429</v>
+        <v>51643.7487383754</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>167908.613297202</v>
+        <v>155824.635410313</v>
       </c>
       <c r="C11" t="n">
-        <v>-256548235134726</v>
+        <v>-786978791915249</v>
       </c>
       <c r="D11" t="n">
-        <v>-392356667338998</v>
+        <v>-1203580199433312</v>
       </c>
       <c r="E11" t="n">
-        <v>256548235484895</v>
+        <v>786978792185037</v>
       </c>
       <c r="F11" t="n">
-        <v>392356667689168</v>
+        <v>1203580199703100</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-31966.3867027976</v>
+        <v>-44050.3645896869</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>136006.237763421</v>
+        <v>127990.141819306</v>
       </c>
       <c r="C12" t="n">
-        <v>-2144094020730144</v>
+        <v>-7914327103940047</v>
       </c>
       <c r="D12" t="n">
-        <v>-3279108834307414</v>
+        <v>-12103918798679554</v>
       </c>
       <c r="E12" t="n">
-        <v>2144094021022121</v>
+        <v>7914327104178329</v>
       </c>
       <c r="F12" t="n">
-        <v>3279108834599392</v>
+        <v>12103918798917838</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-53010.7622365794</v>
+        <v>-61026.8581806939</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>99284.5649700158</v>
+        <v>96632.7177705729</v>
       </c>
       <c r="C13" t="n">
-        <v>-26752762090795040</v>
+        <v>-92965323019294656</v>
       </c>
       <c r="D13" t="n">
-        <v>-40914818876378800</v>
+        <v>-142178192300505664</v>
       </c>
       <c r="E13" t="n">
-        <v>26752762091002280</v>
+        <v>92965323019484544</v>
       </c>
       <c r="F13" t="n">
-        <v>40914818876586048</v>
+        <v>142178192300695552</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-32513.4350299842</v>
+        <v>-35165.2822294271</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>58922.1803726112</v>
+        <v>56944.675390278</v>
       </c>
       <c r="C14" t="n">
-        <v>-151734290337977280</v>
+        <v>-451190854124209792</v>
       </c>
       <c r="D14" t="n">
-        <v>-232057571679402880</v>
+        <v>-690036864698109056</v>
       </c>
       <c r="E14" t="n">
-        <v>151734290338088896</v>
+        <v>451190854124307200</v>
       </c>
       <c r="F14" t="n">
-        <v>232057571679514496</v>
+        <v>690036864698206336</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-4286.81962738877</v>
+        <v>-6264.32460972203</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>38422.6553661416</v>
+        <v>37964.5978681487</v>
       </c>
       <c r="C15" t="n">
-        <v>-1161415469987238912</v>
+        <v>-3816119261965445632</v>
       </c>
       <c r="D15" t="n">
-        <v>-1776231681551832832</v>
+        <v>-5836250772307734528</v>
       </c>
       <c r="E15" t="n">
-        <v>1161415469987303936</v>
+        <v>3816119261965498880</v>
       </c>
       <c r="F15" t="n">
-        <v>1776231681551897856</v>
+        <v>5836250772307787776</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>19893.6553661416</v>
+        <v>19435.5978681487</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>80573.4635270812</v>
+        <v>78176.7617635119</v>
       </c>
       <c r="C16" t="n">
-        <v>-52030155881761112064</v>
+        <v>-233196892684504629248</v>
       </c>
       <c r="D16" t="n">
-        <v>-79573256652315066368</v>
+        <v>-356643870802071584768</v>
       </c>
       <c r="E16" t="n">
-        <v>52030155881761325056</v>
+        <v>233196892684504825856</v>
       </c>
       <c r="F16" t="n">
-        <v>79573256652315295744</v>
+        <v>356643870802071715840</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>44367.4635270812</v>
+        <v>41970.7617635119</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>181769.626737185</v>
+        <v>181629.384009457</v>
       </c>
       <c r="C17" t="n">
-        <v>-1967286355555165143040</v>
+        <v>-6696523574092608045056</v>
       </c>
       <c r="D17" t="n">
-        <v>-3008704844839106641920</v>
+        <v>-10241449021419164794880</v>
       </c>
       <c r="E17" t="n">
-        <v>1967286355555165667328</v>
+        <v>6696523574092608045056</v>
       </c>
       <c r="F17" t="n">
-        <v>3008704844839107690496</v>
+        <v>10241449021419164794880</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>37602.6267371854</v>
+        <v>37462.3840094571</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>296617.708893521</v>
+        <v>302478.32706693</v>
       </c>
       <c r="C18" t="n">
-        <v>-39088601199336868544512</v>
+        <v>-186213989878433633533952</v>
       </c>
       <c r="D18" t="n">
-        <v>-59780856749367484219392</v>
+        <v>-284789721609164677971968</v>
       </c>
       <c r="E18" t="n">
-        <v>39088601199336868544512</v>
+        <v>186213989878433633533952</v>
       </c>
       <c r="F18" t="n">
-        <v>59780856749367484219392</v>
+        <v>284789721609164677971968</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>55779.7088935213</v>
+        <v>61640.3270669302</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>319793.831768466</v>
+        <v>328254.438863357</v>
       </c>
       <c r="C19" t="n">
-        <v>-785950907098419695714304</v>
+        <v>-4828156480029028499062784</v>
       </c>
       <c r="D19" t="n">
-        <v>-1202008185191419682488320</v>
+        <v>-7384028131992666942472192</v>
       </c>
       <c r="E19" t="n">
-        <v>785950907098419695714304</v>
+        <v>4828156480029028499062784</v>
       </c>
       <c r="F19" t="n">
-        <v>1202008185191419682488320</v>
+        <v>7384028131992666942472192</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>95367.8317684663</v>
+        <v>103828.438863357</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>277318.332380656</v>
+        <v>266408.934081026</v>
       </c>
       <c r="C20" t="n">
-        <v>-7820074587121858061008896</v>
+        <v>-28873955387650527192940544</v>
       </c>
       <c r="D20" t="n">
-        <v>-11959772013280224939606016</v>
+        <v>-44158904075750011045937152</v>
       </c>
       <c r="E20" t="n">
-        <v>7820074587121858061008896</v>
+        <v>28873955387650527192940544</v>
       </c>
       <c r="F20" t="n">
-        <v>11959772013280224939606016</v>
+        <v>44158904075750011045937152</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>114331.332380656</v>
+        <v>103421.934081026</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>174349.258358098</v>
+        <v>162532.175025858</v>
       </c>
       <c r="C21" t="n">
-        <v>-104073518468147111977287680</v>
+        <v>-222373656792703302178439168</v>
       </c>
       <c r="D21" t="n">
-        <v>-159166711216376349580066816</v>
+        <v>-340091159920635152256991232</v>
       </c>
       <c r="E21" t="n">
-        <v>104073518468147111977287680</v>
+        <v>222373656792703302178439168</v>
       </c>
       <c r="F21" t="n">
-        <v>159166711216376349580066816</v>
+        <v>340091159920635152256991232</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>103066.258358098</v>
+        <v>91249.175025858</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>176275.981840536</v>
+        <v>160345.749723279</v>
       </c>
       <c r="C22" t="n">
-        <v>-1344314399956459383085334528</v>
+        <v>-2026792005253630638535213056</v>
       </c>
       <c r="D22" t="n">
-        <v>-2055951456540542080032702464</v>
+        <v>-3099710882692984958242258944</v>
       </c>
       <c r="E22" t="n">
-        <v>1344314399956459383085334528</v>
+        <v>2026792005253630638535213056</v>
       </c>
       <c r="F22" t="n">
-        <v>2055951456540542080032702464</v>
+        <v>3099710882692984958242258944</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>89640.9818405355</v>
+        <v>73710.7497232785</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>163956.977078498</v>
+        <v>149067.722821177</v>
       </c>
       <c r="C23" t="n">
-        <v>-25341354837580995712704839680</v>
+        <v>-23346765140497153879447699456</v>
       </c>
       <c r="D23" t="n">
-        <v>-38756257755420032936422932480</v>
+        <v>-35705796053118024679189118976</v>
       </c>
       <c r="E23" t="n">
-        <v>25341354837580995712704839680</v>
+        <v>23346765140497153879447699456</v>
       </c>
       <c r="F23" t="n">
-        <v>38756257755420032936422932480</v>
+        <v>35705796053118024679189118976</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>31886.9770784981</v>
+        <v>16997.7228211769</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>134096.506889422</v>
+        <v>123835.261373204</v>
       </c>
       <c r="C24" t="n">
-        <v>-293187673357317726971031977984</v>
+        <v>-203122949510677472935168442368</v>
       </c>
       <c r="D24" t="n">
-        <v>-448391852455224202110357733376</v>
+        <v>-310649743777805387052015943680</v>
       </c>
       <c r="E24" t="n">
-        <v>293187673357317726971031977984</v>
+        <v>203122949510677472935168442368</v>
       </c>
       <c r="F24" t="n">
-        <v>448391852455224202110357733376</v>
+        <v>310649743777805387052015943680</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>20623.5068894222</v>
+        <v>10362.2613732036</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>99205.9367119199</v>
+        <v>95036.2685118829</v>
       </c>
       <c r="C25" t="n">
-        <v>-4917989436923818684715676729344</v>
+        <v>-1919340027296524097881351651328</v>
       </c>
       <c r="D25" t="n">
-        <v>-7521415783705071116928340197376</v>
+        <v>-2935377263566216318236575662080</v>
       </c>
       <c r="E25" t="n">
-        <v>4917989436923818684715676729344</v>
+        <v>1919340027296524097881351651328</v>
       </c>
       <c r="F25" t="n">
-        <v>7521415783705071116928340197376</v>
+        <v>2935377263566216318236575662080</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>24784.9367119199</v>
+        <v>20615.2685118829</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>59999.8495151354</v>
+        <v>57589.8457175485</v>
       </c>
       <c r="C26" t="n">
-        <v>-25407589177023894479769710886912</v>
+        <v>-3377429895659097420147189612544</v>
       </c>
       <c r="D26" t="n">
-        <v>-38857554436207680106026575593472</v>
+        <v>-5165333283321812883303613595648</v>
       </c>
       <c r="E26" t="n">
-        <v>25407589177023894479769710886912</v>
+        <v>3377429895659097420147189612544</v>
       </c>
       <c r="F26" t="n">
-        <v>38857554436207680106026575593472</v>
+        <v>5165333283321812883303613595648</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>15816.8495151354</v>
+        <v>13406.8457175485</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>39592.0014006528</v>
+        <v>38836.8058406455</v>
       </c>
       <c r="C27" t="n">
-        <v>-188384363665602671685274412515328</v>
+        <v>-29792642558417807274821629771776</v>
       </c>
       <c r="D27" t="n">
-        <v>-288109021877845978285178672381952</v>
+        <v>-45563914858127460901167663415296</v>
       </c>
       <c r="E27" t="n">
-        <v>188384363665602671685274412515328</v>
+        <v>29792642558417807274821629771776</v>
       </c>
       <c r="F27" t="n">
-        <v>288109021877845978285178672381952</v>
+        <v>45563914858127460901167663415296</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>21458.0014006528</v>
+        <v>20702.8058406455</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>80532.3974181003</v>
+        <v>76826.2665149823</v>
       </c>
       <c r="C28" t="n">
-        <v>-6065466799897826366210793604644864</v>
+        <v>-1516326110789917913307979181981696</v>
       </c>
       <c r="D28" t="n">
-        <v>-9276330970085667456772769167966208</v>
+        <v>-2319020666720492244828560975462400</v>
       </c>
       <c r="E28" t="n">
-        <v>6065466799897826366210793604644864</v>
+        <v>1516326110789917913307979181981696</v>
       </c>
       <c r="F28" t="n">
-        <v>9276330970085667456772769167966208</v>
+        <v>2319020666720492244828560975462400</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>47245.3974181003</v>
+        <v>43539.2665149823</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>180906.050697436</v>
+        <v>176969.471732355</v>
       </c>
       <c r="C29" t="n">
-        <v>-296354351645485956689923235066675200</v>
+        <v>-48677991111396435642670576746627072</v>
       </c>
       <c r="D29" t="n">
-        <v>-453234868969192640086935828986593280</v>
+        <v>-74446563043722876387723351873814528</v>
       </c>
       <c r="E29" t="n">
-        <v>296354351645485956689923235066675200</v>
+        <v>48677991111396435642670576746627072</v>
       </c>
       <c r="F29" t="n">
-        <v>453234868969192640086935828986593280</v>
+        <v>74446563043722876387723351873814528</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>136112.050697436</v>
+        <v>132175.471732355</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>296362.911669027</v>
+        <v>297260.834718203</v>
       </c>
       <c r="C30" t="n">
-        <v>-3905975789493279925909659147044913152</v>
+        <v>-597612872343149724530777779588825088</v>
       </c>
       <c r="D30" t="n">
-        <v>-5973674472192590586724416709520785408</v>
+        <v>-913970017267590406622720413208150016</v>
       </c>
       <c r="E30" t="n">
-        <v>3905975789493279925909659147044913152</v>
+        <v>597612872343149724530777779588825088</v>
       </c>
       <c r="F30" t="n">
-        <v>5973674472192590586724416709520785408</v>
+        <v>913970017267590406622720413208150016</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>226320.911669027</v>
+        <v>227218.834718203</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>316745.837651885</v>
+        <v>323456.508833439</v>
       </c>
       <c r="C31" t="n">
-        <v>-97634133177502922832964195688730591232</v>
+        <v>-5830112038723058704995588808512634880</v>
       </c>
       <c r="D31" t="n">
-        <v>-149318521263226670465725030051558195200</v>
+        <v>-8916386924216124714576754620770549760</v>
       </c>
       <c r="E31" t="n">
-        <v>97634133177502922832964195688730591232</v>
+        <v>5830112038723058704995588808512634880</v>
       </c>
       <c r="F31" t="n">
-        <v>149318521263226670465725030051558195200</v>
+        <v>8916386924216124714576754620770549760</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>176084.837651885</v>
+        <v>182795.508833439</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>271527.292643191</v>
+        <v>259891.233679817</v>
       </c>
       <c r="C32" t="n">
-        <v>-838302359154096349247839389705062842368</v>
+        <v>-27981230757774601099134039230513152000</v>
       </c>
       <c r="D32" t="n">
-        <v>-1282072821938126190350956267490684960768</v>
+        <v>-42793599573215133883779576755352764416</v>
       </c>
       <c r="E32" t="n">
-        <v>838302359154096349247839389705062842368</v>
+        <v>27981230757774601099134039230513152000</v>
       </c>
       <c r="F32" t="n">
-        <v>1282072821938126190350956267490684960768</v>
+        <v>42793599573215133883779576755352764416</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>162554.292643191</v>
+        <v>150918.233679817</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>171569.032871392</v>
+        <v>158658.912824185</v>
       </c>
       <c r="C33" t="n">
-        <v>-8112952541746290010356243666666640113664</v>
+        <v>-180827292546613413129240960825781387264</v>
       </c>
       <c r="D33" t="n">
-        <v>-12407690191809159500342589736589243449344</v>
+        <v>-276551478958741869495362010947516366848</v>
       </c>
       <c r="E33" t="n">
-        <v>8112952541746290010356243666666640113664</v>
+        <v>180827292546613413129240960825781387264</v>
       </c>
       <c r="F33" t="n">
-        <v>12407690191809159500342589736589243449344</v>
+        <v>276551478958741869495362010947516366848</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>117041.032871392</v>
+        <v>104130.912824185</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>176404.996205268</v>
+        <v>158042.325354115</v>
       </c>
       <c r="C34" t="n">
-        <v>-109940857040871842215417766257407888982016</v>
+        <v>-1367561599205896992841676364721246175232</v>
       </c>
       <c r="D34" t="n">
-        <v>-168140031211312527095837862760103268057088</v>
+        <v>-2091504979703663090803330352708992368640</v>
       </c>
       <c r="E34" t="n">
-        <v>109940857040871842215417766257407888982016</v>
+        <v>1367561599205896992841676364721246175232</v>
       </c>
       <c r="F34" t="n">
-        <v>168140031211312527095837862760103268057088</v>
+        <v>2091504979703663090803330352708992368640</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>131532.996205268</v>
+        <v>113170.325354115</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>167179.537079991</v>
+        <v>149513.618018591</v>
       </c>
       <c r="C35" t="n">
-        <v>-1736512952838480957176557587841317743886336</v>
+        <v>-32737993729662376863990205104851207061504</v>
       </c>
       <c r="D35" t="n">
-        <v>-2655767382098581976530529695181496798674944</v>
+        <v>-50068440756786130552873369366436121673728</v>
       </c>
       <c r="E35" t="n">
-        <v>1736512952838480957176557587841317743886336</v>
+        <v>32737993729662376863990205104851207061504</v>
       </c>
       <c r="F35" t="n">
-        <v>2655767382098581976530529695181496798674944</v>
+        <v>50068440756786130552873369366436121673728</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>119784.537079991</v>
+        <v>102118.618018591</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>138553.161796966</v>
+        <v>126162.046694628</v>
       </c>
       <c r="C36" t="n">
-        <v>-22982839720582311505366989962377445601443840</v>
+        <v>-180009334734689802130571929646084822925312</v>
       </c>
       <c r="D36" t="n">
-        <v>-35149220153038192758345293838742036351549440</v>
+        <v>-275300520436786360863055755925985800749056</v>
       </c>
       <c r="E36" t="n">
-        <v>22982839720582311505366989962377445601443840</v>
+        <v>180009334734689802130571929646084822925312</v>
       </c>
       <c r="F36" t="n">
-        <v>35149220153038192758345293838742036351549440</v>
+        <v>275300520436786360863055755925985800749056</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>87920.1617969663</v>
+        <v>75529.0466946284</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>104766.96074782</v>
+        <v>99247.2989851803</v>
       </c>
       <c r="C37" t="n">
-        <v>-231275541122772342684267781286223518441144320</v>
+        <v>-1652533455750297166441806322168337650417664</v>
       </c>
       <c r="D37" t="n">
-        <v>-353705417162061457994428302549528377292750848</v>
+        <v>-2527331824640009862067246492604623728148480</v>
       </c>
       <c r="E37" t="n">
-        <v>231275541122772342684267781286223518441144320</v>
+        <v>1652533455750297166441806322168337650417664</v>
       </c>
       <c r="F37" t="n">
-        <v>353705417162061457994428302549528377292750848</v>
+        <v>2527331824640009862067246492604623728148480</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>77019.9607478202</v>
+        <v>71500.2989851803</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>65198.7757235088</v>
+        <v>62366.3791068041</v>
       </c>
       <c r="C38" t="n">
-        <v>-1096510179164376488717669685562153795942612992</v>
+        <v>-3613070494456450970715278311478869146730496</v>
       </c>
       <c r="D38" t="n">
-        <v>-1676967605225047388997214127656852199793754112</v>
+        <v>-5525714480111192152870276067913146495401984</v>
       </c>
       <c r="E38" t="n">
-        <v>1096510179164376488717669685562153795942612992</v>
+        <v>3613070494456450970715278311478869146730496</v>
       </c>
       <c r="F38" t="n">
-        <v>1676967605225047388997214127656852199793754112</v>
+        <v>5525714480111192152870276067913146495401984</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>62714.7757235088</v>
+        <v>59882.3791068041</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>43331.9280419069</v>
+        <v>42474.1027709779</v>
       </c>
       <c r="C39" t="n">
-        <v>-5124018839687616215785125488828110555582562304</v>
+        <v>-13141057306315398466491690591002636830375936</v>
       </c>
       <c r="D39" t="n">
-        <v>-7836510564149382776282038430561307135683067904</v>
+        <v>-20097512836488943091110832395695085712310272</v>
       </c>
       <c r="E39" t="n">
-        <v>5124018839687616215785125488828110555582562304</v>
+        <v>13141057306315398466491690591002636830375936</v>
       </c>
       <c r="F39" t="n">
-        <v>7836510564149382776282038430561307135683067904</v>
+        <v>20097512836488943091110832395695085712310272</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>39396.9280419069</v>
+        <v>38539.1027709779</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>82468.1290881552</v>
+        <v>77541.5048619354</v>
       </c>
       <c r="C40" t="n">
-        <v>-210712825278392694668797554131396764167317749760</v>
+        <v>-1280408008707406839146046596401298030020526080</v>
       </c>
       <c r="D40" t="n">
-        <v>-322257457077686162687790891990740617249490468864</v>
+        <v>-1958215065280435722743700919475637760888406016</v>
       </c>
       <c r="E40" t="n">
-        <v>210712825278392694668797554131396764167317749760</v>
+        <v>1280408008707406839146046596401298030020526080</v>
       </c>
       <c r="F40" t="n">
-        <v>322257457077686162687790891990740617249490468864</v>
+        <v>1958215065280435722743700919475637760888406016</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,9 +1664,297 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>72837.1290881552</v>
+        <v>67910.5048619354</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>173754.593598501</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-61342989848132300413988627318746507574964649984</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-93816007126684117890735058578301014829776764928</v>
+      </c>
+      <c r="E41" t="n">
+        <v>61342989848132300413988627318746507574964649984</v>
+      </c>
+      <c r="F41" t="n">
+        <v>93816007126684117890735058578301014829776764928</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>20105</v>
+      </c>
+      <c r="I41" t="n">
+        <v>153649.593598501</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>291207.260850086</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-904040153467322097192141850961734362740392198144</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-1382610102482332645284132324461930739522791800832</v>
+      </c>
+      <c r="E42" t="n">
+        <v>904040153467322097192141850961734362740392198144</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1382610102482332645284132324461930739522791800832</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>91259</v>
+      </c>
+      <c r="I42" t="n">
+        <v>199948.260850086</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>318533.645965639</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5697525870625926806390453947451471033533271638016</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-8713613878397931641795049887786374297368228003840</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5697525870625926806390453947451471033533271638016</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8713613878397931641795049887786374297368228003840</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>433084</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-114550.354034361</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>257113.39869238</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-40483543719796975342596075125154527222000854761472</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-61914237234485538238349234559181409258640041312256</v>
+      </c>
+      <c r="E44" t="n">
+        <v>40483543719796975342596075125154527222000854761472</v>
+      </c>
+      <c r="F44" t="n">
+        <v>61914237234485538238349234559181409258640041312256</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>457212</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-200098.60130762</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>156927.402275942</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-242147419691572705185807076396582220442046969151488</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-370332520598267270344574615882682296514350516535296</v>
+      </c>
+      <c r="E45" t="n">
+        <v>242147419691572705185807076396582220442046969151488</v>
+      </c>
+      <c r="F45" t="n">
+        <v>370332520598267270344574615882682296514350516535296</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>193538</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-36610.5977240577</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>156642.46156655</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-819809216812205791523106572685751735486489294798848</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1253790001390304298243243755510573600570912121290752</v>
+      </c>
+      <c r="E46" t="n">
+        <v>819809216812205791523106572685751735486489294798848</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1253790001390304298243243755510573600570912121290752</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>166980</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-10337.5384334496</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>148862.02248603</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-31807351579665243294850044637844373335995554209988608</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-48645146411455458107944087033317691934411847563739136</v>
+      </c>
+      <c r="E47" t="n">
+        <v>31807351579665243294850044637844373335995554209988608</v>
+      </c>
+      <c r="F47" t="n">
+        <v>48645146411455458107944087033317691934411847563739136</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>165527</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-16664.9775139698</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>127023.463807336</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-112105929937334019719713525061873145592499605908488192</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-171451224467251777853832361639454010282390151015432192</v>
+      </c>
+      <c r="E48" t="n">
+        <v>112105929937334019719713525061873145592499605908488192</v>
+      </c>
+      <c r="F48" t="n">
+        <v>171451224467251777853832361639454010282390151015432192</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>92955</v>
+      </c>
+      <c r="I48" t="n">
+        <v>34068.4638073363</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>101804.309573849</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-977411773163774465428826515020971906419314136899911680</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1494822311463018845348774089126757547671147664128344064</v>
+      </c>
+      <c r="E49" t="n">
+        <v>977411773163774465428826515020971906419314136899911680</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1494822311463018845348774089126757547671147664128344064</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>46150</v>
+      </c>
+      <c r="I49" t="n">
+        <v>55654.3095738486</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>

--- a/outcome/appendix/data/forecast/HFMD.xlsx
+++ b/outcome/appendix/data/forecast/HFMD.xlsx
@@ -494,16 +494,16 @@
         <v>79112.6188186207</v>
       </c>
       <c r="C4" t="n">
-        <v>-172924.805477833</v>
+        <v>-676915.570442923</v>
       </c>
       <c r="D4" t="n">
-        <v>-311712.379918285</v>
+        <v>-1082499.73988893</v>
       </c>
       <c r="E4" t="n">
-        <v>351427.132435293</v>
+        <v>855417.897400383</v>
       </c>
       <c r="F4" t="n">
-        <v>490214.706875744</v>
+        <v>1261002.06684639</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>187770.228301992</v>
       </c>
       <c r="C5" t="n">
-        <v>-24120877.4926542</v>
+        <v>-119586404.109293</v>
       </c>
       <c r="D5" t="n">
-        <v>-37018746.9246502</v>
+        <v>-183020670.658596</v>
       </c>
       <c r="E5" t="n">
-        <v>24608433.1742695</v>
+        <v>120073959.790908</v>
       </c>
       <c r="F5" t="n">
-        <v>37506302.6062655</v>
+        <v>183508226.340211</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>315234.65232728</v>
       </c>
       <c r="C6" t="n">
-        <v>-925446149.83938</v>
+        <v>-10510024091.9554</v>
       </c>
       <c r="D6" t="n">
-        <v>-1415554273.17938</v>
+        <v>-16073901294.574</v>
       </c>
       <c r="E6" t="n">
-        <v>926226417.365548</v>
+        <v>10510804359.4815</v>
       </c>
       <c r="F6" t="n">
-        <v>1416334540.70555</v>
+        <v>16074681562.1002</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>345021.73963972</v>
       </c>
       <c r="C7" t="n">
-        <v>-32486870623.6693</v>
+        <v>-490481700408.895</v>
       </c>
       <c r="D7" t="n">
-        <v>-49684598249.8072</v>
+        <v>-750127245755.086</v>
       </c>
       <c r="E7" t="n">
-        <v>32487691002.7873</v>
+        <v>490482520788.013</v>
       </c>
       <c r="F7" t="n">
-        <v>49685418628.9253</v>
+        <v>750128066134.204</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>281085.666557611</v>
       </c>
       <c r="C8" t="n">
-        <v>-416908452682.811</v>
+        <v>-16136529424847.8</v>
       </c>
       <c r="D8" t="n">
-        <v>-637606604717.328</v>
+        <v>-24678692257771.9</v>
       </c>
       <c r="E8" t="n">
-        <v>416909013900.247</v>
+        <v>16136529986065.3</v>
       </c>
       <c r="F8" t="n">
-        <v>637607165934.764</v>
+        <v>24678692818989.4</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>169546.669796812</v>
       </c>
       <c r="C9" t="n">
-        <v>-4077939847096.1</v>
+        <v>-352116931036597</v>
       </c>
       <c r="D9" t="n">
-        <v>-6236670880485.35</v>
+        <v>-538516374863521</v>
       </c>
       <c r="E9" t="n">
-        <v>4077940139671.21</v>
+        <v>352116931329172</v>
       </c>
       <c r="F9" t="n">
-        <v>6236671173060.46</v>
+        <v>538516375156096</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>166813.748738375</v>
       </c>
       <c r="C10" t="n">
-        <v>-56638288158800</v>
+        <v>-14957684488156826</v>
       </c>
       <c r="D10" t="n">
-        <v>-86620786877749.9</v>
+        <v>-22875804358708936</v>
       </c>
       <c r="E10" t="n">
-        <v>56638288437793.3</v>
+        <v>14957684488435818</v>
       </c>
       <c r="F10" t="n">
-        <v>86620787156743.3</v>
+        <v>22875804358987928</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>155824.635410313</v>
       </c>
       <c r="C11" t="n">
-        <v>-786978791915249</v>
+        <v>-561306324768831552</v>
       </c>
       <c r="D11" t="n">
-        <v>-1203580199433312</v>
+        <v>-858443944371473536</v>
       </c>
       <c r="E11" t="n">
-        <v>786978792185037</v>
+        <v>561306324769101376</v>
       </c>
       <c r="F11" t="n">
-        <v>1203580199703100</v>
+        <v>858443944371743360</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>127990.141819306</v>
       </c>
       <c r="C12" t="n">
-        <v>-7914327103940047</v>
+        <v>-16214333567363227648</v>
       </c>
       <c r="D12" t="n">
-        <v>-12103918798679554</v>
+        <v>-24797683276869177344</v>
       </c>
       <c r="E12" t="n">
-        <v>7914327104178329</v>
+        <v>16214333567363465216</v>
       </c>
       <c r="F12" t="n">
-        <v>12103918798917838</v>
+        <v>24797683276869414912</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>96632.7177705729</v>
       </c>
       <c r="C13" t="n">
-        <v>-92965323019294656</v>
+        <v>-434515907765387395072</v>
       </c>
       <c r="D13" t="n">
-        <v>-142178192300505664</v>
+        <v>-664534734946838511616</v>
       </c>
       <c r="E13" t="n">
-        <v>92965323019484544</v>
+        <v>434515907765387526144</v>
       </c>
       <c r="F13" t="n">
-        <v>142178192300695552</v>
+        <v>664534734946838773760</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>56944.675390278</v>
       </c>
       <c r="C14" t="n">
-        <v>-451190854124209792</v>
+        <v>-6030141438578859704320</v>
       </c>
       <c r="D14" t="n">
-        <v>-690036864698109056</v>
+        <v>-9222305492073303769088</v>
       </c>
       <c r="E14" t="n">
-        <v>451190854124307200</v>
+        <v>6030141438578859704320</v>
       </c>
       <c r="F14" t="n">
-        <v>690036864698206336</v>
+        <v>9222305492073303769088</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>37964.5978681487</v>
       </c>
       <c r="C15" t="n">
-        <v>-3816119261965445632</v>
+        <v>-88085317581403045494784</v>
       </c>
       <c r="D15" t="n">
-        <v>-5836250772307734528</v>
+        <v>-134714868030266840973312</v>
       </c>
       <c r="E15" t="n">
-        <v>3816119261965498880</v>
+        <v>88085317581403045494784</v>
       </c>
       <c r="F15" t="n">
-        <v>5836250772307787776</v>
+        <v>134714868030266840973312</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>78176.7617635119</v>
       </c>
       <c r="C16" t="n">
-        <v>-233196892684504629248</v>
+        <v>-7657919468173320679063552</v>
       </c>
       <c r="D16" t="n">
-        <v>-356643870802071584768</v>
+        <v>-11711777159547682969092096</v>
       </c>
       <c r="E16" t="n">
-        <v>233196892684504825856</v>
+        <v>7657919468173320679063552</v>
       </c>
       <c r="F16" t="n">
-        <v>356643870802071715840</v>
+        <v>11711777159547682969092096</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181629.384009457</v>
       </c>
       <c r="C17" t="n">
-        <v>-6696523574092608045056</v>
+        <v>-658773394845510694994968576</v>
       </c>
       <c r="D17" t="n">
-        <v>-10241449021419164794880</v>
+        <v>-1007506964670357427525255168</v>
       </c>
       <c r="E17" t="n">
-        <v>6696523574092608045056</v>
+        <v>658773394845510694994968576</v>
       </c>
       <c r="F17" t="n">
-        <v>10241449021419164794880</v>
+        <v>1007506964670357427525255168</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>302478.32706693</v>
       </c>
       <c r="C18" t="n">
-        <v>-186213989878433633533952</v>
+        <v>-17474476238596020002994782208</v>
       </c>
       <c r="D18" t="n">
-        <v>-284789721609164677971968</v>
+        <v>-26724905183034708113632526336</v>
       </c>
       <c r="E18" t="n">
-        <v>186213989878433633533952</v>
+        <v>17474476238596020002994782208</v>
       </c>
       <c r="F18" t="n">
-        <v>284789721609164677971968</v>
+        <v>26724905183034708113632526336</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>328254.438863357</v>
       </c>
       <c r="C19" t="n">
-        <v>-4828156480029028499062784</v>
+        <v>-514252401473411383279273115648</v>
       </c>
       <c r="D19" t="n">
-        <v>-7384028131992666942472192</v>
+        <v>-786481178713086426639830614016</v>
       </c>
       <c r="E19" t="n">
-        <v>4828156480029028499062784</v>
+        <v>514252401473411383279273115648</v>
       </c>
       <c r="F19" t="n">
-        <v>7384028131992666942472192</v>
+        <v>786481178713086426639830614016</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>266408.934081026</v>
       </c>
       <c r="C20" t="n">
-        <v>-28873955387650527192940544</v>
+        <v>-6621570862442416720647630618624</v>
       </c>
       <c r="D20" t="n">
-        <v>-44158904075750011045937152</v>
+        <v>-10126818740962550539217293803520</v>
       </c>
       <c r="E20" t="n">
-        <v>28873955387650527192940544</v>
+        <v>6621570862442416720647630618624</v>
       </c>
       <c r="F20" t="n">
-        <v>44158904075750011045937152</v>
+        <v>10126818740962550539217293803520</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>162532.175025858</v>
       </c>
       <c r="C21" t="n">
-        <v>-222373656792703302178439168</v>
+        <v>-53519008020119903493586027544576</v>
       </c>
       <c r="D21" t="n">
-        <v>-340091159920635152256991232</v>
+        <v>-81850259504126600544742203719680</v>
       </c>
       <c r="E21" t="n">
-        <v>222373656792703302178439168</v>
+        <v>53519008020119903493586027544576</v>
       </c>
       <c r="F21" t="n">
-        <v>340091159920635152256991232</v>
+        <v>81850259504126600544742203719680</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>160345.749723279</v>
       </c>
       <c r="C22" t="n">
-        <v>-2026792005253630638535213056</v>
+        <v>-855891355037234394002648870158336</v>
       </c>
       <c r="D22" t="n">
-        <v>-3099710882692984958242258944</v>
+        <v>-1308972869803561927576465379950592</v>
       </c>
       <c r="E22" t="n">
-        <v>2026792005253630638535213056</v>
+        <v>855891355037234394002648870158336</v>
       </c>
       <c r="F22" t="n">
-        <v>3099710882692984958242258944</v>
+        <v>1308972869803561927576465379950592</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>149067.722821177</v>
       </c>
       <c r="C23" t="n">
-        <v>-23346765140497153879447699456</v>
+        <v>-17640779621462952367551078694125568</v>
       </c>
       <c r="D23" t="n">
-        <v>-35705796053118024679189118976</v>
+        <v>-26979244258956204420983808549978112</v>
       </c>
       <c r="E23" t="n">
-        <v>23346765140497153879447699456</v>
+        <v>17640779621462952367551078694125568</v>
       </c>
       <c r="F23" t="n">
-        <v>35705796053118024679189118976</v>
+        <v>26979244258956204420983808549978112</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>123835.261373204</v>
       </c>
       <c r="C24" t="n">
-        <v>-203122949510677472935168442368</v>
+        <v>-500081053318942245441781054778114048</v>
       </c>
       <c r="D24" t="n">
-        <v>-310649743777805387052015943680</v>
+        <v>-764807971998743660910469148810674176</v>
       </c>
       <c r="E24" t="n">
-        <v>203122949510677472935168442368</v>
+        <v>500081053318942245441781054778114048</v>
       </c>
       <c r="F24" t="n">
-        <v>310649743777805387052015943680</v>
+        <v>764807971998743660910469148810674176</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>95036.2685118829</v>
       </c>
       <c r="C25" t="n">
-        <v>-1919340027296524097881351651328</v>
+        <v>-7131467536308281745576620938684792832</v>
       </c>
       <c r="D25" t="n">
-        <v>-2935377263566216318236575662080</v>
+        <v>-10906638409154497923510431837493133312</v>
       </c>
       <c r="E25" t="n">
-        <v>1919340027296524097881351651328</v>
+        <v>7131467536308281745576620938684792832</v>
       </c>
       <c r="F25" t="n">
-        <v>2935377263566216318236575662080</v>
+        <v>10906638409154497923510431837493133312</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>57589.8457175485</v>
       </c>
       <c r="C26" t="n">
-        <v>-3377429895659097420147189612544</v>
+        <v>-90578666330992188004786358554799898624</v>
       </c>
       <c r="D26" t="n">
-        <v>-5165333283321812883303613595648</v>
+        <v>-138528115878796460985272854762007560192</v>
       </c>
       <c r="E26" t="n">
-        <v>3377429895659097420147189612544</v>
+        <v>90578666330992188004786358554799898624</v>
       </c>
       <c r="F26" t="n">
-        <v>5165333283321812883303613595648</v>
+        <v>138528115878796460985272854762007560192</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>38836.8058406455</v>
       </c>
       <c r="C27" t="n">
-        <v>-29792642558417807274821629771776</v>
+        <v>-1435112634563430442841187424828993306624</v>
       </c>
       <c r="D27" t="n">
-        <v>-45563914858127460901167663415296</v>
+        <v>-2194815373119549261669194386613009907712</v>
       </c>
       <c r="E27" t="n">
-        <v>29792642558417807274821629771776</v>
+        <v>1435112634563430442841187424828993306624</v>
       </c>
       <c r="F27" t="n">
-        <v>45563914858127460901167663415296</v>
+        <v>2194815373119549261669194386613009907712</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>76826.2665149823</v>
       </c>
       <c r="C28" t="n">
-        <v>-1516326110789917913307979181981696</v>
+        <v>-90395677416958762930571912577537634467840</v>
       </c>
       <c r="D28" t="n">
-        <v>-2319020666720492244828560975462400</v>
+        <v>-138248258485057305785821851826897350033408</v>
       </c>
       <c r="E28" t="n">
-        <v>1516326110789917913307979181981696</v>
+        <v>90395677416958762930571912577537634467840</v>
       </c>
       <c r="F28" t="n">
-        <v>2319020666720492244828560975462400</v>
+        <v>138248258485057305785821851826897350033408</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>176969.471732355</v>
       </c>
       <c r="C29" t="n">
-        <v>-48677991111396435642670576746627072</v>
+        <v>-3572219787796158235664079674687611841019904</v>
       </c>
       <c r="D29" t="n">
-        <v>-74446563043722876387723351873814528</v>
+        <v>-5463238715616175515287978333761360755687424</v>
       </c>
       <c r="E29" t="n">
-        <v>48677991111396435642670576746627072</v>
+        <v>3572219787796158235664079674687611841019904</v>
       </c>
       <c r="F29" t="n">
-        <v>74446563043722876387723351873814528</v>
+        <v>5463238715616175515287978333761360755687424</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>297260.834718203</v>
       </c>
       <c r="C30" t="n">
-        <v>-597612872343149724530777779588825088</v>
+        <v>-59828652259417604471469684290428459055841280</v>
       </c>
       <c r="D30" t="n">
-        <v>-913970017267590406622720413208150016</v>
+        <v>-91500027642039074772769827019819350686171136</v>
       </c>
       <c r="E30" t="n">
-        <v>597612872343149724530777779588825088</v>
+        <v>59828652259417604471469684290428459055841280</v>
       </c>
       <c r="F30" t="n">
-        <v>913970017267590406622720413208150016</v>
+        <v>91500027642039074772769827019819350686171136</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>323456.508833439</v>
       </c>
       <c r="C31" t="n">
-        <v>-5830112038723058704995588808512634880</v>
+        <v>-1368365805501511388579253712542493603654533120</v>
       </c>
       <c r="D31" t="n">
-        <v>-8916386924216124714576754620770549760</v>
+        <v>-2092734907096303790000215373491915358096850944</v>
       </c>
       <c r="E31" t="n">
-        <v>5830112038723058704995588808512634880</v>
+        <v>1368365805501511388579253712542493603654533120</v>
       </c>
       <c r="F31" t="n">
-        <v>8916386924216124714576754620770549760</v>
+        <v>2092734907096303790000215373491915358096850944</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>259891.233679817</v>
       </c>
       <c r="C32" t="n">
-        <v>-27981230757774601099134039230513152000</v>
+        <v>-10433099714413475460641427141395382915557228544</v>
       </c>
       <c r="D32" t="n">
-        <v>-42793599573215133883779576755352764416</v>
+        <v>-15956049087011067919561206580447036895867699200</v>
       </c>
       <c r="E32" t="n">
-        <v>27981230757774601099134039230513152000</v>
+        <v>10433099714413475460641427141395382915557228544</v>
       </c>
       <c r="F32" t="n">
-        <v>42793599573215133883779576755352764416</v>
+        <v>15956049087011067919561206580447036895867699200</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>158658.912824185</v>
       </c>
       <c r="C33" t="n">
-        <v>-180827292546613413129240960825781387264</v>
+        <v>-104380864721355890538770873567303186232884854784</v>
       </c>
       <c r="D33" t="n">
-        <v>-276551478958741869495362010947516366848</v>
+        <v>-159636756748111592855557867580306723730700107776</v>
       </c>
       <c r="E33" t="n">
-        <v>180827292546613413129240960825781387264</v>
+        <v>104380864721355890538770873567303186232884854784</v>
       </c>
       <c r="F33" t="n">
-        <v>276551478958741869495362010947516366848</v>
+        <v>159636756748111592855557867580306723730700107776</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>158042.325354115</v>
       </c>
       <c r="C34" t="n">
-        <v>-1367561599205896992841676364721246175232</v>
+        <v>-1441606114297874703255119464979685334637082574848</v>
       </c>
       <c r="D34" t="n">
-        <v>-2091504979703663090803330352708992368640</v>
+        <v>-2204746293385284313492632424532108685813120761856</v>
       </c>
       <c r="E34" t="n">
-        <v>1367561599205896992841676364721246175232</v>
+        <v>1441606114297874703255119464979685334637082574848</v>
       </c>
       <c r="F34" t="n">
-        <v>2091504979703663090803330352708992368640</v>
+        <v>2204746293385284313492632424532108685813120761856</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>149513.618018591</v>
       </c>
       <c r="C35" t="n">
-        <v>-32737993729662376863990205104851207061504</v>
+        <v>-16710824053986329625386544199103745784698623754240</v>
       </c>
       <c r="D35" t="n">
-        <v>-50068440756786130552873369366436121673728</v>
+        <v>-25556999950977751308295533730073979348604243935232</v>
       </c>
       <c r="E35" t="n">
-        <v>32737993729662376863990205104851207061504</v>
+        <v>16710824053986329625386544199103745784698623754240</v>
       </c>
       <c r="F35" t="n">
-        <v>50068440756786130552873369366436121673728</v>
+        <v>25556999950977751308295533730073979348604243935232</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>126162.046694628</v>
       </c>
       <c r="C36" t="n">
-        <v>-180009334734689802130571929646084822925312</v>
+        <v>-187558115218543615548965089568258783473850287915008</v>
       </c>
       <c r="D36" t="n">
-        <v>-275300520436786360863055755925985800749056</v>
+        <v>-286845383923621545323024952986364882669128485175296</v>
       </c>
       <c r="E36" t="n">
-        <v>180009334734689802130571929646084822925312</v>
+        <v>187558115218543615548965089568258783473850287915008</v>
       </c>
       <c r="F36" t="n">
-        <v>275300520436786360863055755925985800749056</v>
+        <v>286845383923621545323024952986364882669128485175296</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>99247.2989851803</v>
       </c>
       <c r="C37" t="n">
-        <v>-1652533455750297166441806322168337650417664</v>
+        <v>-3620398355488948332385332812062925426079131594915840</v>
       </c>
       <c r="D37" t="n">
-        <v>-2527331824640009862067246492604623728148480</v>
+        <v>-5536921476453400658462166009483614953935175413661696</v>
       </c>
       <c r="E37" t="n">
-        <v>1652533455750297166441806322168337650417664</v>
+        <v>3620398355488948332385332812062925426079131594915840</v>
       </c>
       <c r="F37" t="n">
-        <v>2527331824640009862067246492604623728148480</v>
+        <v>5536921476453400658462166009483614953935175413661696</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>62366.3791068041</v>
       </c>
       <c r="C38" t="n">
-        <v>-3613070494456450970715278311478869146730496</v>
+        <v>-18685995587556087470257681758630850071560572809248768</v>
       </c>
       <c r="D38" t="n">
-        <v>-5525714480111192152870276067913146495401984</v>
+        <v>-28577764134930315952747722357718066453874173135552512</v>
       </c>
       <c r="E38" t="n">
-        <v>3613070494456450970715278311478869146730496</v>
+        <v>18685995587556087470257681758630850071560572809248768</v>
       </c>
       <c r="F38" t="n">
-        <v>5525714480111192152870276067913146495401984</v>
+        <v>28577764134930315952747722357718066453874173135552512</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>42474.1027709779</v>
       </c>
       <c r="C39" t="n">
-        <v>-13141057306315398466491690591002636830375936</v>
+        <v>-187100225256503080625985843288613981060229744279158784</v>
       </c>
       <c r="D39" t="n">
-        <v>-20097512836488943091110832395695085712310272</v>
+        <v>-286145101657491639530722046374917919017327634293981184</v>
       </c>
       <c r="E39" t="n">
-        <v>13141057306315398466491690591002636830375936</v>
+        <v>187100225256503080625985843288613981060229744279158784</v>
       </c>
       <c r="F39" t="n">
-        <v>20097512836488943091110832395695085712310272</v>
+        <v>286145101657491639530722046374917919017327634293981184</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>77541.5048619354</v>
       </c>
       <c r="C40" t="n">
-        <v>-1280408008707406839146046596401298030020526080</v>
+        <v>-4335349353783870406270509820981664601064466171733999616</v>
       </c>
       <c r="D40" t="n">
-        <v>-1958215065280435722743700919475637760888406016</v>
+        <v>-6630344671464304361078235714034228536447274235130281984</v>
       </c>
       <c r="E40" t="n">
-        <v>1280408008707406839146046596401298030020526080</v>
+        <v>4335349353783870406270509820981664601064466171733999616</v>
       </c>
       <c r="F40" t="n">
-        <v>1958215065280435722743700919475637760888406016</v>
+        <v>6630344671464304361078235714034228536447274235130281984</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1678,16 +1678,16 @@
         <v>173754.593598501</v>
       </c>
       <c r="C41" t="n">
-        <v>-61342989848132300413988627318746507574964649984</v>
+        <v>-214510245415316605191404975072086425134653940178637291520</v>
       </c>
       <c r="D41" t="n">
-        <v>-93816007126684117890735058578301014829776764928</v>
+        <v>-328065110006091890651453395562950363513381476724765622272</v>
       </c>
       <c r="E41" t="n">
-        <v>61342989848132300413988627318746507574964649984</v>
+        <v>214510245415316605191404975072086425134653940178637291520</v>
       </c>
       <c r="F41" t="n">
-        <v>93816007126684117890735058578301014829776764928</v>
+        <v>328065110006091890651453395562950363513381476724765622272</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1710,16 +1710,16 @@
         <v>291207.260850086</v>
       </c>
       <c r="C42" t="n">
-        <v>-904040153467322097192141850961734362740392198144</v>
+        <v>-3383251624058979992903718046649810595764663673022241046528</v>
       </c>
       <c r="D42" t="n">
-        <v>-1382610102482332645284132324461930739522791800832</v>
+        <v>-5174236848576868223095856006032600893755865886314370957312</v>
       </c>
       <c r="E42" t="n">
-        <v>904040153467322097192141850961734362740392198144</v>
+        <v>3383251624058979992903718046649810595764663673022241046528</v>
       </c>
       <c r="F42" t="n">
-        <v>1382610102482332645284132324461930739522791800832</v>
+        <v>5174236848576868223095856006032600893755865886314370957312</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1742,16 +1742,16 @@
         <v>318533.645965639</v>
       </c>
       <c r="C43" t="n">
-        <v>-5697525870625926806390453947451471033533271638016</v>
+        <v>-80548629347509298364164100079858326845325151518879844925440</v>
       </c>
       <c r="D43" t="n">
-        <v>-8713613878397931641795049887786374297368228003840</v>
+        <v>-123188498043850210160440868971540501107225023762609316298752</v>
       </c>
       <c r="E43" t="n">
-        <v>5697525870625926806390453947451471033533271638016</v>
+        <v>80548629347509298364164100079858326845325151518879844925440</v>
       </c>
       <c r="F43" t="n">
-        <v>8713613878397931641795049887786374297368228003840</v>
+        <v>123188498043850210160440868971540501107225023762609316298752</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1774,16 +1774,16 @@
         <v>257113.39869238</v>
       </c>
       <c r="C44" t="n">
-        <v>-40483543719796975342596075125154527222000854761472</v>
+        <v>-620910137134972652013816041981024897728519823452838570229760</v>
       </c>
       <c r="D44" t="n">
-        <v>-61914237234485538238349234559181409258640041312256</v>
+        <v>-949600109070304328844914519832590964729363852829475607674880</v>
       </c>
       <c r="E44" t="n">
-        <v>40483543719796975342596075125154527222000854761472</v>
+        <v>620910137134972652013816041981024897728519823452838570229760</v>
       </c>
       <c r="F44" t="n">
-        <v>61914237234485538238349234559181409258640041312256</v>
+        <v>949600109070304328844914519832590964729363852829475607674880</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1806,16 +1806,16 @@
         <v>156927.402275942</v>
       </c>
       <c r="C45" t="n">
-        <v>-242147419691572705185807076396582220442046969151488</v>
+        <v>-7302979757537560182568901209003566868797248595231993491357696</v>
       </c>
       <c r="D45" t="n">
-        <v>-370332520598267270344574615882682296514350516535296</v>
+        <v>-11168943715905848889082537411175823565136542870431143542390784</v>
       </c>
       <c r="E45" t="n">
-        <v>242147419691572705185807076396582220442046969151488</v>
+        <v>7302979757537560182568901209003566868797248595231993491357696</v>
       </c>
       <c r="F45" t="n">
-        <v>370332520598267270344574615882682296514350516535296</v>
+        <v>11168943715905848889082537411175823565136542870431143542390784</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1838,16 +1838,16 @@
         <v>156642.46156655</v>
       </c>
       <c r="C46" t="n">
-        <v>-819809216812205791523106572685751735486489294798848</v>
+        <v>-128097312533869328604036071927429549638833304571478623737872384</v>
       </c>
       <c r="D46" t="n">
-        <v>-1253790001390304298243243755510573600570912121290752</v>
+        <v>-195907933658575427381829482532146672017920235666499021156909056</v>
       </c>
       <c r="E46" t="n">
-        <v>819809216812205791523106572685751735486489294798848</v>
+        <v>128097312533869328604036071927429549638833304571478623737872384</v>
       </c>
       <c r="F46" t="n">
-        <v>1253790001390304298243243755510573600570912121290752</v>
+        <v>195907933658575427381829482532146672017920235666499021156909056</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1870,16 +1870,16 @@
         <v>148862.02248603</v>
       </c>
       <c r="C47" t="n">
-        <v>-31807351579665243294850044637844373335995554209988608</v>
+        <v>-990604701654231818501013784990228648183944499967727829608562688</v>
       </c>
       <c r="D47" t="n">
-        <v>-48645146411455458107944087033317691934411847563739136</v>
+        <v>-1514999154429864634609464833669766216942007866560736580601905152</v>
       </c>
       <c r="E47" t="n">
-        <v>31807351579665243294850044637844373335995554209988608</v>
+        <v>990604701654231818501013784990228648183944499967727829608562688</v>
       </c>
       <c r="F47" t="n">
-        <v>48645146411455458107944087033317691934411847563739136</v>
+        <v>1514999154429864634609464833669766216942007866560736580601905152</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1902,16 +1902,16 @@
         <v>127023.463807336</v>
       </c>
       <c r="C48" t="n">
-        <v>-112105929937334019719713525061873145592499605908488192</v>
+        <v>-14198879124000270155539213430888802770045879264984312978587254784</v>
       </c>
       <c r="D48" t="n">
-        <v>-171451224467251777853832361639454010282390151015432192</v>
+        <v>-21715311698793781727717647350854296836369969349397774841765953536</v>
       </c>
       <c r="E48" t="n">
-        <v>112105929937334019719713525061873145592499605908488192</v>
+        <v>14198879124000270155539213430888802770045879264984312978587254784</v>
       </c>
       <c r="F48" t="n">
-        <v>171451224467251777853832361639454010282390151015432192</v>
+        <v>21715311698793781727717647350854296836369969349397774841765953536</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1934,16 +1934,16 @@
         <v>101804.309573849</v>
       </c>
       <c r="C49" t="n">
-        <v>-977411773163774465428826515020971906419314136899911680</v>
+        <v>-176069517897779863694683934779450929411048898392242155495364755456</v>
       </c>
       <c r="D49" t="n">
-        <v>-1494822311463018845348774089126757547671147664128344064</v>
+        <v>-269275090548800125783351093393065240111841996288558670418077024256</v>
       </c>
       <c r="E49" t="n">
-        <v>977411773163774465428826515020971906419314136899911680</v>
+        <v>176069517897779863694683934779450929411048898392242155495364755456</v>
       </c>
       <c r="F49" t="n">
-        <v>1494822311463018845348774089126757547671147664128344064</v>
+        <v>269275090548800125783351093393065240111841996288558670418077024256</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/HFMD.xlsx
+++ b/outcome/appendix/data/forecast/HFMD.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>43248.2830208865</v>
+        <v>43310.6367125265</v>
       </c>
       <c r="C2" t="n">
-        <v>-41160.091871201</v>
+        <v>-41160.0821386951</v>
       </c>
       <c r="D2" t="n">
-        <v>-69041.3365383441</v>
+        <v>-69041.3362316664</v>
       </c>
       <c r="E2" t="n">
-        <v>122660.758065313</v>
+        <v>122908.450737487</v>
       </c>
       <c r="F2" t="n">
-        <v>154487.724716126</v>
+        <v>154734.473643136</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>14893.2830208865</v>
+        <v>14955.6367125265</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>32712.4132969273</v>
+        <v>32871.4643324038</v>
       </c>
       <c r="C3" t="n">
-        <v>-95784.1926124718</v>
+        <v>-95784.2116473849</v>
       </c>
       <c r="D3" t="n">
-        <v>-135212.245445185</v>
+        <v>-135212.286921556</v>
       </c>
       <c r="E3" t="n">
-        <v>222951.113461148</v>
+        <v>223380.539832756</v>
       </c>
       <c r="F3" t="n">
-        <v>266608.798927979</v>
+        <v>266760.095604059</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>29449.4132969273</v>
+        <v>29608.4643324038</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>79112.6188186207</v>
+        <v>79402.8505973059</v>
       </c>
       <c r="C4" t="n">
-        <v>-676915.570442923</v>
+        <v>-930680.728812333</v>
       </c>
       <c r="D4" t="n">
-        <v>-1082499.73988893</v>
+        <v>-1470600.12840752</v>
       </c>
       <c r="E4" t="n">
-        <v>855417.897400383</v>
+        <v>1109183.31979597</v>
       </c>
       <c r="F4" t="n">
-        <v>1261002.06684639</v>
+        <v>1649102.71939115</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>76243.6188186207</v>
+        <v>76533.8505973059</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>187770.228301992</v>
+        <v>188110.081163956</v>
       </c>
       <c r="C5" t="n">
-        <v>-119586404.109293</v>
+        <v>-187992712.095395</v>
       </c>
       <c r="D5" t="n">
-        <v>-183020670.658596</v>
+        <v>-287639090.882801</v>
       </c>
       <c r="E5" t="n">
-        <v>120073959.790908</v>
+        <v>188480268.528816</v>
       </c>
       <c r="F5" t="n">
-        <v>183508226.340211</v>
+        <v>288126647.316221</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>184769.228301992</v>
+        <v>185109.081163956</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>315234.65232728</v>
+        <v>315384.951586167</v>
       </c>
       <c r="C6" t="n">
-        <v>-10510024091.9554</v>
+        <v>-20306903232.0307</v>
       </c>
       <c r="D6" t="n">
-        <v>-16073901294.574</v>
+        <v>-31056934979.7915</v>
       </c>
       <c r="E6" t="n">
-        <v>10510804359.4815</v>
+        <v>20307683500.9083</v>
       </c>
       <c r="F6" t="n">
-        <v>16074681562.1002</v>
+        <v>31057715248.6691</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>311315.65232728</v>
+        <v>311465.951586167</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>345021.73963972</v>
+        <v>345054.34473583</v>
       </c>
       <c r="C7" t="n">
-        <v>-490481700408.895</v>
+        <v>-1349404299703.07</v>
       </c>
       <c r="D7" t="n">
-        <v>-750127245755.086</v>
+        <v>-2063736003596.37</v>
       </c>
       <c r="E7" t="n">
-        <v>490482520788.013</v>
+        <v>1349405120083.61</v>
       </c>
       <c r="F7" t="n">
-        <v>750128066134.204</v>
+        <v>2063736823976.91</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>338761.73963972</v>
+        <v>338794.34473583</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>281085.666557611</v>
+        <v>281100.943272502</v>
       </c>
       <c r="C8" t="n">
-        <v>-16136529424847.8</v>
+        <v>-56753371267023.8</v>
       </c>
       <c r="D8" t="n">
-        <v>-24678692257771.9</v>
+        <v>-86796791378188.7</v>
       </c>
       <c r="E8" t="n">
-        <v>16136529986065.3</v>
+        <v>56753371828242.5</v>
       </c>
       <c r="F8" t="n">
-        <v>24678692818989.4</v>
+        <v>86796791939407.4</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>221942.666557611</v>
+        <v>221957.943272502</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>169546.669796812</v>
+        <v>169519.187297709</v>
       </c>
       <c r="C9" t="n">
-        <v>-352116931036597</v>
+        <v>-1422733226883401</v>
       </c>
       <c r="D9" t="n">
-        <v>-538516374863521</v>
+        <v>-2175882702943892</v>
       </c>
       <c r="E9" t="n">
-        <v>352116931329172</v>
+        <v>1422733227175975</v>
       </c>
       <c r="F9" t="n">
-        <v>538516375156096</v>
+        <v>2175882703236466</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>110403.669796812</v>
+        <v>110376.187297709</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>166813.748738375</v>
+        <v>166774.529520374</v>
       </c>
       <c r="C10" t="n">
-        <v>-14957684488156826</v>
+        <v>-85237043383636080</v>
       </c>
       <c r="D10" t="n">
-        <v>-22875804358708936</v>
+        <v>-130358808550716352</v>
       </c>
       <c r="E10" t="n">
-        <v>14957684488435818</v>
+        <v>85237043383915088</v>
       </c>
       <c r="F10" t="n">
-        <v>22875804358987928</v>
+        <v>130358808550995360</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>51643.7487383754</v>
+        <v>51604.5295203745</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>155824.635410313</v>
+        <v>155807.912940594</v>
       </c>
       <c r="C11" t="n">
-        <v>-561306324768831552</v>
+        <v>-3961817694414698496</v>
       </c>
       <c r="D11" t="n">
-        <v>-858443944371473536</v>
+        <v>-6059077295939031040</v>
       </c>
       <c r="E11" t="n">
-        <v>561306324769101376</v>
+        <v>3961817694414967808</v>
       </c>
       <c r="F11" t="n">
-        <v>858443944371743360</v>
+        <v>6059077295939301376</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-44050.3645896869</v>
+        <v>-44067.0870594059</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>127990.141819306</v>
+        <v>128034.617693189</v>
       </c>
       <c r="C12" t="n">
-        <v>-16214333567363227648</v>
+        <v>-184492718502421561344</v>
       </c>
       <c r="D12" t="n">
-        <v>-24797683276869177344</v>
+        <v>-282157264207288991744</v>
       </c>
       <c r="E12" t="n">
-        <v>16214333567363465216</v>
+        <v>184492718502421823488</v>
       </c>
       <c r="F12" t="n">
-        <v>24797683276869414912</v>
+        <v>282157264207289253888</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-61026.8581806939</v>
+        <v>-60982.3823068112</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>96632.7177705729</v>
+        <v>96684.753862109</v>
       </c>
       <c r="C13" t="n">
-        <v>-434515907765387395072</v>
+        <v>-9271506037124196466688</v>
       </c>
       <c r="D13" t="n">
-        <v>-664534734946838511616</v>
+        <v>-14179544860909996343296</v>
       </c>
       <c r="E13" t="n">
-        <v>434515907765387526144</v>
+        <v>9271506037124196466688</v>
       </c>
       <c r="F13" t="n">
-        <v>664534734946838773760</v>
+        <v>14179544860909996343296</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-35165.2822294271</v>
+        <v>-35113.246137891</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>56944.675390278</v>
+        <v>57035.6097864998</v>
       </c>
       <c r="C14" t="n">
-        <v>-6030141438578859704320</v>
+        <v>-308530893763921104076800</v>
       </c>
       <c r="D14" t="n">
-        <v>-9222305492073303769088</v>
+        <v>-471857283119360805699584</v>
       </c>
       <c r="E14" t="n">
-        <v>6030141438578859704320</v>
+        <v>308530893763921104076800</v>
       </c>
       <c r="F14" t="n">
-        <v>9222305492073303769088</v>
+        <v>471857283119360805699584</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-6264.32460972203</v>
+        <v>-6173.3902135002</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>37964.5978681487</v>
+        <v>38168.5825128162</v>
       </c>
       <c r="C15" t="n">
-        <v>-88085317581403045494784</v>
+        <v>-6122309686101736134017024</v>
       </c>
       <c r="D15" t="n">
-        <v>-134714868030266840973312</v>
+        <v>-9363264662597391056109568</v>
       </c>
       <c r="E15" t="n">
-        <v>88085317581403045494784</v>
+        <v>6122309686101736134017024</v>
       </c>
       <c r="F15" t="n">
-        <v>134714868030266840973312</v>
+        <v>9363264662597391056109568</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>19435.5978681487</v>
+        <v>19639.5825128162</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>78176.7617635119</v>
+        <v>78415.9388370207</v>
       </c>
       <c r="C16" t="n">
-        <v>-7657919468173320679063552</v>
+        <v>-811934524525109084342452224</v>
       </c>
       <c r="D16" t="n">
-        <v>-11711777159547682969092096</v>
+        <v>-1241746698813176935870365696</v>
       </c>
       <c r="E16" t="n">
-        <v>7657919468173320679063552</v>
+        <v>811934524525109084342452224</v>
       </c>
       <c r="F16" t="n">
-        <v>11711777159547682969092096</v>
+        <v>1241746698813176935870365696</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>41970.7617635119</v>
+        <v>42209.9388370207</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>181629.384009457</v>
+        <v>181744.451277559</v>
       </c>
       <c r="C17" t="n">
-        <v>-658773394845510694994968576</v>
+        <v>-81882529163550344882757304320</v>
       </c>
       <c r="D17" t="n">
-        <v>-1007506964670357427525255168</v>
+        <v>-125228521768774667476106477568</v>
       </c>
       <c r="E17" t="n">
-        <v>658773394845510694994968576</v>
+        <v>81882529163550344882757304320</v>
       </c>
       <c r="F17" t="n">
-        <v>1007506964670357427525255168</v>
+        <v>125228521768774667476106477568</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>37462.3840094571</v>
+        <v>37577.4512775589</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>302478.32706693</v>
+        <v>302300.927712491</v>
       </c>
       <c r="C18" t="n">
-        <v>-17474476238596020002994782208</v>
+        <v>-5341523788116033268312807833600</v>
       </c>
       <c r="D18" t="n">
-        <v>-26724905183034708113632526336</v>
+        <v>-8169155677182956844056796200960</v>
       </c>
       <c r="E18" t="n">
-        <v>17474476238596020002994782208</v>
+        <v>5341523788116033268312807833600</v>
       </c>
       <c r="F18" t="n">
-        <v>26724905183034708113632526336</v>
+        <v>8169155677182956844056796200960</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>61640.3270669302</v>
+        <v>61462.927712491</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>328254.438863357</v>
+        <v>327995.097816517</v>
       </c>
       <c r="C19" t="n">
-        <v>-514252401473411383279273115648</v>
+        <v>-187770355824036859425580422004736</v>
       </c>
       <c r="D19" t="n">
-        <v>-786481178713086426639830614016</v>
+        <v>-287169977918906399918693973753856</v>
       </c>
       <c r="E19" t="n">
-        <v>514252401473411383279273115648</v>
+        <v>187770355824036859425580422004736</v>
       </c>
       <c r="F19" t="n">
-        <v>786481178713086426639830614016</v>
+        <v>287169977918906399918693973753856</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>103828.438863357</v>
+        <v>103569.097816517</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>266408.934081026</v>
+        <v>266281.932601167</v>
       </c>
       <c r="C20" t="n">
-        <v>-6621570862442416720647630618624</v>
+        <v>-2651584852667207437473268895842304</v>
       </c>
       <c r="D20" t="n">
-        <v>-10126818740962550539217293803520</v>
+        <v>-4055249084707083314503862196371456</v>
       </c>
       <c r="E20" t="n">
-        <v>6621570862442416720647630618624</v>
+        <v>2651584852667207437473268895842304</v>
       </c>
       <c r="F20" t="n">
-        <v>10126818740962550539217293803520</v>
+        <v>4055249084707083314503862196371456</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>103421.934081026</v>
+        <v>103294.932601167</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>162532.175025858</v>
+        <v>162456.55269261</v>
       </c>
       <c r="C21" t="n">
-        <v>-53519008020119903493586027544576</v>
+        <v>-30001930817642140417377707472453632</v>
       </c>
       <c r="D21" t="n">
-        <v>-81850259504126600544742203719680</v>
+        <v>-45883993629435006926862702277033984</v>
       </c>
       <c r="E21" t="n">
-        <v>53519008020119903493586027544576</v>
+        <v>30001930817642140417377707472453632</v>
       </c>
       <c r="F21" t="n">
-        <v>81850259504126600544742203719680</v>
+        <v>45883993629435006926862702277033984</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>91249.175025858</v>
+        <v>91173.5526926099</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>160345.749723279</v>
+        <v>160272.543473665</v>
       </c>
       <c r="C22" t="n">
-        <v>-855891355037234394002648870158336</v>
+        <v>-791353074347887815833181166139080704</v>
       </c>
       <c r="D22" t="n">
-        <v>-1308972869803561927576465379950592</v>
+        <v>-1210270087039216175261337433539608576</v>
       </c>
       <c r="E22" t="n">
-        <v>855891355037234394002648870158336</v>
+        <v>791353074347887815833181166139080704</v>
       </c>
       <c r="F22" t="n">
-        <v>1308972869803561927576465379950592</v>
+        <v>1210270087039216175261337433539608576</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>73710.7497232785</v>
+        <v>73637.5434736651</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>149067.722821177</v>
+        <v>149033.571660915</v>
       </c>
       <c r="C23" t="n">
-        <v>-17640779621462952367551078694125568</v>
+        <v>-12702106655994496953727826306023817216</v>
       </c>
       <c r="D23" t="n">
-        <v>-26979244258956204420983808549978112</v>
+        <v>-19426195748086179030830638750872109056</v>
       </c>
       <c r="E23" t="n">
-        <v>17640779621462952367551078694125568</v>
+        <v>12702106655994496953727826306023817216</v>
       </c>
       <c r="F23" t="n">
-        <v>26979244258956204420983808549978112</v>
+        <v>19426195748086179030830638750872109056</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>16997.7228211769</v>
+        <v>16963.5716609149</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>123835.261373204</v>
+        <v>123910.182841589</v>
       </c>
       <c r="C24" t="n">
-        <v>-500081053318942245441781054778114048</v>
+        <v>-215582734895104066617728335976337506304</v>
       </c>
       <c r="D24" t="n">
-        <v>-764807971998743660910469148810674176</v>
+        <v>-329705341121792822021232606999593615360</v>
       </c>
       <c r="E24" t="n">
-        <v>500081053318942245441781054778114048</v>
+        <v>215582734895104066617728335976337506304</v>
       </c>
       <c r="F24" t="n">
-        <v>764807971998743660910469148810674176</v>
+        <v>329705341121792822021232606999593615360</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>10362.2613732036</v>
+        <v>10437.1828415894</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>95036.2685118829</v>
+        <v>95181.4253180439</v>
       </c>
       <c r="C25" t="n">
-        <v>-7131467536308281745576620938684792832</v>
+        <v>-2604997715604464530527381152481379614720</v>
       </c>
       <c r="D25" t="n">
-        <v>-10906638409154497923510431837493133312</v>
+        <v>-3984000206986735599217495505243998257152</v>
       </c>
       <c r="E25" t="n">
-        <v>7131467536308281745576620938684792832</v>
+        <v>2604997715604464530527381152481379614720</v>
       </c>
       <c r="F25" t="n">
-        <v>10906638409154497923510431837493133312</v>
+        <v>3984000206986735599217495505243998257152</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>20615.2685118829</v>
+        <v>20760.4253180439</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>57589.8457175485</v>
+        <v>57762.6470410008</v>
       </c>
       <c r="C26" t="n">
-        <v>-90578666330992188004786358554799898624</v>
+        <v>-23994003120976322209966329629078875799552</v>
       </c>
       <c r="D26" t="n">
-        <v>-138528115878796460985272854762007560192</v>
+        <v>-36695661123921110291652682680709612044288</v>
       </c>
       <c r="E26" t="n">
-        <v>90578666330992188004786358554799898624</v>
+        <v>23994003120976322209966329629078875799552</v>
       </c>
       <c r="F26" t="n">
-        <v>138528115878796460985272854762007560192</v>
+        <v>36695661123921110291652682680709612044288</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>13406.8457175485</v>
+        <v>13579.6470410008</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>38836.8058406455</v>
+        <v>39078.8287958604</v>
       </c>
       <c r="C27" t="n">
-        <v>-1435112634563430442841187424828993306624</v>
+        <v>-126808319519777876396390407858743588945920</v>
       </c>
       <c r="D27" t="n">
-        <v>-2194815373119549261669194386613009907712</v>
+        <v>-193936588960580854540915984372292246306816</v>
       </c>
       <c r="E27" t="n">
-        <v>1435112634563430442841187424828993306624</v>
+        <v>126808319519777876396390407858743588945920</v>
       </c>
       <c r="F27" t="n">
-        <v>2194815373119549261669194386613009907712</v>
+        <v>193936588960580854540915984372292246306816</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>20702.8058406455</v>
+        <v>20944.8287958604</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>76826.2665149823</v>
+        <v>77051.4764955932</v>
       </c>
       <c r="C28" t="n">
-        <v>-90395677416958762930571912577537634467840</v>
+        <v>-6758469147107507304444633970227561260646400</v>
       </c>
       <c r="D28" t="n">
-        <v>-138248258485057305785821851826897350033408</v>
+        <v>-10336186599972475299723551396412976470687744</v>
       </c>
       <c r="E28" t="n">
-        <v>90395677416958762930571912577537634467840</v>
+        <v>6758469147107507304444633970227561260646400</v>
       </c>
       <c r="F28" t="n">
-        <v>138248258485057305785821851826897350033408</v>
+        <v>10336186599972475299723551396412976470687744</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>43539.2665149823</v>
+        <v>43764.4764955932</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>176969.471732355</v>
+        <v>177008.22247919</v>
       </c>
       <c r="C29" t="n">
-        <v>-3572219787796158235664079674687611841019904</v>
+        <v>-377410380541158790110749606108272521134473216</v>
       </c>
       <c r="D29" t="n">
-        <v>-5463238715616175515287978333761360755687424</v>
+        <v>-577199367657035574822421297619916165344133120</v>
       </c>
       <c r="E29" t="n">
-        <v>3572219787796158235664079674687611841019904</v>
+        <v>377410380541158790110749606108272521134473216</v>
       </c>
       <c r="F29" t="n">
-        <v>5463238715616175515287978333761360755687424</v>
+        <v>577199367657035574822421297619916165344133120</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>132175.471732355</v>
+        <v>132214.22247919</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>297260.834718203</v>
+        <v>296975.862138505</v>
       </c>
       <c r="C30" t="n">
-        <v>-59828652259417604471469684290428459055841280</v>
+        <v>-10706940723337338792697371391401267653779652608</v>
       </c>
       <c r="D30" t="n">
-        <v>-91500027642039074772769827019819350686171136</v>
+        <v>-16374852769524460368657964340061665494048964608</v>
       </c>
       <c r="E30" t="n">
-        <v>59828652259417604471469684290428459055841280</v>
+        <v>10706940723337338792697371391401267653779652608</v>
       </c>
       <c r="F30" t="n">
-        <v>91500027642039074772769827019819350686171136</v>
+        <v>16374852769524460368657964340061665494048964608</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>227218.834718203</v>
+        <v>226933.862138505</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>323456.508833439</v>
+        <v>322973.847847158</v>
       </c>
       <c r="C31" t="n">
-        <v>-1368365805501511388579253712542493603654533120</v>
+        <v>-163950780391573764232867460948180332313357320192</v>
       </c>
       <c r="D31" t="n">
-        <v>-2092734907096303790000215373491915358096850944</v>
+        <v>-250741080924173679280075416467056893877890842624</v>
       </c>
       <c r="E31" t="n">
-        <v>1368365805501511388579253712542493603654533120</v>
+        <v>163950780391573764232867460948180332313357320192</v>
       </c>
       <c r="F31" t="n">
-        <v>2092734907096303790000215373491915358096850944</v>
+        <v>250741080924173679280075416467056893877890842624</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>182795.508833439</v>
+        <v>182312.847847158</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>259891.233679817</v>
+        <v>259576.38859982</v>
       </c>
       <c r="C32" t="n">
-        <v>-10433099714413475460641427141395382915557228544</v>
+        <v>-3687272584931373731797680909545724800781428719616</v>
       </c>
       <c r="D32" t="n">
-        <v>-15956049087011067919561206580447036895867699200</v>
+        <v>-5639196784544746957102343625831785168136998748160</v>
       </c>
       <c r="E32" t="n">
-        <v>10433099714413475460641427141395382915557228544</v>
+        <v>3687272584931373731797680909545724800781428719616</v>
       </c>
       <c r="F32" t="n">
-        <v>15956049087011067919561206580447036895867699200</v>
+        <v>5639196784544746957102343625831785168136998748160</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>150918.233679817</v>
+        <v>150603.38859982</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>158658.912824185</v>
+        <v>158495.513947247</v>
       </c>
       <c r="C33" t="n">
-        <v>-104380864721355890538770873567303186232884854784</v>
+        <v>-43877474804998472267350674289349861273488358113280</v>
       </c>
       <c r="D33" t="n">
-        <v>-159636756748111592855557867580306723730700107776</v>
+        <v>-67104806909439730302187161619827515108509106569216</v>
       </c>
       <c r="E33" t="n">
-        <v>104380864721355890538770873567303186232884854784</v>
+        <v>43877474804998472267350674289349861273488358113280</v>
       </c>
       <c r="F33" t="n">
-        <v>159636756748111592855557867580306723730700107776</v>
+        <v>67104806909439730302187161619827515108509106569216</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>104130.912824185</v>
+        <v>103967.513947247</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>158042.325354115</v>
+        <v>157957.095802682</v>
       </c>
       <c r="C34" t="n">
-        <v>-1441606114297874703255119464979685334637082574848</v>
+        <v>-1087967863642081633383165586938937026326684046983168</v>
       </c>
       <c r="D34" t="n">
-        <v>-2204746293385284313492632424532108685813120761856</v>
+        <v>-1663903261020403160269956657684478144076691458228224</v>
       </c>
       <c r="E34" t="n">
-        <v>1441606114297874703255119464979685334637082574848</v>
+        <v>1087967863642081633383165586938937026326684046983168</v>
       </c>
       <c r="F34" t="n">
-        <v>2204746293385284313492632424532108685813120761856</v>
+        <v>1663903261020403160269956657684478144076691458228224</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>113170.325354115</v>
+        <v>113085.095802682</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>149513.618018591</v>
+        <v>149508.223314582</v>
       </c>
       <c r="C35" t="n">
-        <v>-16710824053986329625386544199103745784698623754240</v>
+        <v>-12944005380460274392273687667991025542131424566444032</v>
       </c>
       <c r="D35" t="n">
-        <v>-25556999950977751308295533730073979348604243935232</v>
+        <v>-19796147922158574056700267671886138236349238426468352</v>
       </c>
       <c r="E35" t="n">
-        <v>16710824053986329625386544199103745784698623754240</v>
+        <v>12944005380460274392273687667991025542131424566444032</v>
       </c>
       <c r="F35" t="n">
-        <v>25556999950977751308295533730073979348604243935232</v>
+        <v>19796147922158574056700267671886138236349238426468352</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>102118.618018591</v>
+        <v>102113.223314582</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>126162.046694628</v>
+        <v>126288.01154313</v>
       </c>
       <c r="C36" t="n">
-        <v>-187558115218543615548965089568258783473850287915008</v>
+        <v>-206927118202119402481540684965967571835536310370566144</v>
       </c>
       <c r="D36" t="n">
-        <v>-286845383923621545323024952986364882669128485175296</v>
+        <v>-316467717729694361385485249408711380132855547869265920</v>
       </c>
       <c r="E36" t="n">
-        <v>187558115218543615548965089568258783473850287915008</v>
+        <v>206927118202119402481540684965967571835536310370566144</v>
       </c>
       <c r="F36" t="n">
-        <v>286845383923621545323024952986364882669128485175296</v>
+        <v>316467717729694361385485249408711380132855547869265920</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>75529.0466946284</v>
+        <v>75655.0115431303</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>99247.2989851803</v>
+        <v>99496.1263814937</v>
       </c>
       <c r="C37" t="n">
-        <v>-3620398355488948332385332812062925426079131594915840</v>
+        <v>-1790050968826237446149231357193547113270272330901225472</v>
       </c>
       <c r="D37" t="n">
-        <v>-5536921476453400658462166009483614953935175413661696</v>
+        <v>-2737646711780599632547042698656587212175292640358563840</v>
       </c>
       <c r="E37" t="n">
-        <v>3620398355488948332385332812062925426079131594915840</v>
+        <v>1790050968826237446149231357193547113270272330901225472</v>
       </c>
       <c r="F37" t="n">
-        <v>5536921476453400658462166009483614953935175413661696</v>
+        <v>2737646711780599632547042698656587212175292640358563840</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>71500.2989851803</v>
+        <v>71749.1263814937</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>62366.3791068041</v>
+        <v>62666.2741731128</v>
       </c>
       <c r="C38" t="n">
-        <v>-18685995587556087470257681758630850071560572809248768</v>
+        <v>-21957468569866897521355412254257985548994864707855712256</v>
       </c>
       <c r="D38" t="n">
-        <v>-28577764134930315952747722357718066453874173135552512</v>
+        <v>-33581050303130841446635414032481633765339817019225145344</v>
       </c>
       <c r="E38" t="n">
-        <v>18685995587556087470257681758630850071560572809248768</v>
+        <v>21957468569866897521355412254257985548994864707855712256</v>
       </c>
       <c r="F38" t="n">
-        <v>28577764134930315952747722357718066453874173135552512</v>
+        <v>33581050303130841446635414032481633765339817019225145344</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>59882.3791068041</v>
+        <v>60182.2741731128</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>42474.1027709779</v>
+        <v>42788.1286942159</v>
       </c>
       <c r="C39" t="n">
-        <v>-187100225256503080625985843288613981060229744279158784</v>
+        <v>-125676777481849737716653725470778417465692197780797259776</v>
       </c>
       <c r="D39" t="n">
-        <v>-286145101657491639530722046374917919017327634293981184</v>
+        <v>-192206044750766132091885480076607446103209091919396208640</v>
       </c>
       <c r="E39" t="n">
-        <v>187100225256503080625985843288613981060229744279158784</v>
+        <v>125676777481849737716653725470778417465692197780797259776</v>
       </c>
       <c r="F39" t="n">
-        <v>286145101657491639530722046374917919017327634293981184</v>
+        <v>192206044750766132091885480076607446103209091919396208640</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>38539.1027709779</v>
+        <v>38853.1286942159</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>77541.5048619354</v>
+        <v>77778.3267408223</v>
       </c>
       <c r="C40" t="n">
-        <v>-4335349353783870406270509820981664601064466171733999616</v>
+        <v>-5118714219734640413924802653654882488893643251385351798784</v>
       </c>
       <c r="D40" t="n">
-        <v>-6630344671464304361078235714034228536447274235130281984</v>
+        <v>-7828397848017598635472632346232850015942732265779170902016</v>
       </c>
       <c r="E40" t="n">
-        <v>4335349353783870406270509820981664601064466171733999616</v>
+        <v>5118714219734640413924802653654882488893643251385351798784</v>
       </c>
       <c r="F40" t="n">
-        <v>6630344671464304361078235714034228536447274235130281984</v>
+        <v>7828397848017598635472632346232850015942732265779170902016</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>67910.5048619354</v>
+        <v>68147.3267408223</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>173754.593598501</v>
+        <v>173747.803739574</v>
       </c>
       <c r="C41" t="n">
-        <v>-214510245415316605191404975072086425134653940178637291520</v>
+        <v>-172604294129984295766587387918769009822969552815220020215808</v>
       </c>
       <c r="D41" t="n">
-        <v>-328065110006091890651453395562950363513381476724765622272</v>
+        <v>-263975488124792078664294657362007858964432668902582223110144</v>
       </c>
       <c r="E41" t="n">
-        <v>214510245415316605191404975072086425134653940178637291520</v>
+        <v>172604294129984295766587387918769009822969552815220020215808</v>
       </c>
       <c r="F41" t="n">
-        <v>328065110006091890651453395562950363513381476724765622272</v>
+        <v>263975488124792078664294657362007858964432668902582223110144</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>153649.593598501</v>
+        <v>153642.803739574</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>291207.260850086</v>
+        <v>290867.181568137</v>
       </c>
       <c r="C42" t="n">
-        <v>-3383251624058979992903718046649810595764663673022241046528</v>
+        <v>-5900509494152861491434283212062715470614401976637826631991296</v>
       </c>
       <c r="D42" t="n">
-        <v>-5174236848576868223095856006032600893755865886314370957312</v>
+        <v>-9024050541471388022053500094026349714681500105061351219527680</v>
       </c>
       <c r="E42" t="n">
-        <v>3383251624058979992903718046649810595764663673022241046528</v>
+        <v>5900509494152861491434283212062715470614401976637826631991296</v>
       </c>
       <c r="F42" t="n">
-        <v>5174236848576868223095856006032600893755865886314370957312</v>
+        <v>9024050541471388022053500094026349714681500105061351219527680</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>199948.260850086</v>
+        <v>199608.181568137</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>318533.645965639</v>
+        <v>317984.511300162</v>
       </c>
       <c r="C43" t="n">
-        <v>-80548629347509298364164100079858326845325151518879844925440</v>
+        <v>-69266907105781192180022315259152134307451627936937461864726528</v>
       </c>
       <c r="D43" t="n">
-        <v>-123188498043850210160440868971540501107225023762609316298752</v>
+        <v>-105934592799721327502501640022673619325613597598106957738147840</v>
       </c>
       <c r="E43" t="n">
-        <v>80548629347509298364164100079858326845325151518879844925440</v>
+        <v>69266907105781192180022315259152134307451627936937461864726528</v>
       </c>
       <c r="F43" t="n">
-        <v>123188498043850210160440868971540501107225023762609316298752</v>
+        <v>105934592799721327502501640022673619325613597598106957738147840</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-114550.354034361</v>
+        <v>-115099.488699838</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>257113.39869238</v>
+        <v>256687.665988279</v>
       </c>
       <c r="C44" t="n">
-        <v>-620910137134972652013816041981024897728519823452838570229760</v>
+        <v>-812708536403200049244328083208914458502440687327360010200023040</v>
       </c>
       <c r="D44" t="n">
-        <v>-949600109070304328844914519832590964729363852829475607674880</v>
+        <v>-1242930447829175324475491458153756038910320232583411032788041728</v>
       </c>
       <c r="E44" t="n">
-        <v>620910137134972652013816041981024897728519823452838570229760</v>
+        <v>812708536403200049244328083208914458502440687327360010200023040</v>
       </c>
       <c r="F44" t="n">
-        <v>949600109070304328844914519832590964729363852829475607674880</v>
+        <v>1242930447829175324475491458153756038910320232583411032788041728</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-200098.60130762</v>
+        <v>-200524.334011721</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>156927.402275942</v>
+        <v>156714.886485669</v>
       </c>
       <c r="C45" t="n">
-        <v>-7302979757537560182568901209003566868797248595231993491357696</v>
+        <v>-14312192916090138178086413332965731477709926953831642045142269952</v>
       </c>
       <c r="D45" t="n">
-        <v>-11168943715905848889082537411175823565136542870431143542390784</v>
+        <v>-21888610189013664783274377760569376227534566499061277290353655808</v>
       </c>
       <c r="E45" t="n">
-        <v>7302979757537560182568901209003566868797248595231993491357696</v>
+        <v>14312192916090138178086413332965731477709926953831642045142269952</v>
       </c>
       <c r="F45" t="n">
-        <v>11168943715905848889082537411175823565136542870431143542390784</v>
+        <v>21888610189013664783274377760569376227534566499061277290353655808</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>-36610.5977240577</v>
+        <v>-36823.1135143308</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>156642.46156655</v>
+        <v>156581.701883494</v>
       </c>
       <c r="C46" t="n">
-        <v>-128097312533869328604036071927429549638833304571478623737872384</v>
+        <v>-358278048502838919487346232504471324050175259334259239235245572096</v>
       </c>
       <c r="D46" t="n">
-        <v>-195907933658575427381829482532146672017920235666499021156909056</v>
+        <v>-547938990826678739220236438102999009649375535238485264323923935232</v>
       </c>
       <c r="E46" t="n">
-        <v>128097312533869328604036071927429549638833304571478623737872384</v>
+        <v>358278048502838919487346232504471324050175259334259239235245572096</v>
       </c>
       <c r="F46" t="n">
-        <v>195907933658575427381829482532146672017920235666499021156909056</v>
+        <v>547938990826678739220236438102999009649375535238485264323923935232</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>-10337.5384334496</v>
+        <v>-10398.2981165065</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>148862.02248603</v>
+        <v>148928.57095028</v>
       </c>
       <c r="C47" t="n">
-        <v>-990604701654231818501013784990228648183944499967727829608562688</v>
+        <v>-3910704342896501385728807744987850313384824303790309902714455195648</v>
       </c>
       <c r="D47" t="n">
-        <v>-1514999154429864634609464833669766216942007866560736580601905152</v>
+        <v>-5980906170563892431481161066897480801736757738527641342058541613056</v>
       </c>
       <c r="E47" t="n">
-        <v>990604701654231818501013784990228648183944499967727829608562688</v>
+        <v>3910704342896501385728807744987850313384824303790309902714455195648</v>
       </c>
       <c r="F47" t="n">
-        <v>1514999154429864634609464833669766216942007866560736580601905152</v>
+        <v>5980906170563892431481161066897480801736757738527641342058541613056</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>-16664.9775139698</v>
+        <v>-16598.4290497198</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>127023.463807336</v>
+        <v>127230.265714092</v>
       </c>
       <c r="C48" t="n">
-        <v>-14198879124000270155539213430888802770045879264984312978587254784</v>
+        <v>-46827026054702627406378377062391451258310319875997000505801582837760</v>
       </c>
       <c r="D48" t="n">
-        <v>-21715311698793781727717647350854296836369969349397774841765953536</v>
+        <v>-71615756273789793893415620451188050922165984105635156720765076766720</v>
       </c>
       <c r="E48" t="n">
-        <v>14198879124000270155539213430888802770045879264984312978587254784</v>
+        <v>46827026054702627406378377062391451258310319875997000505801582837760</v>
       </c>
       <c r="F48" t="n">
-        <v>21715311698793781727717647350854296836369969349397774841765953536</v>
+        <v>71615756273789793893415620451188050922165984105635156720765076766720</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>34068.4638073363</v>
+        <v>34275.2657140917</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>101804.309573849</v>
+        <v>102145.22755272</v>
       </c>
       <c r="C49" t="n">
-        <v>-176069517897779863694683934779450929411048898392242155495364755456</v>
+        <v>-416148310301581559583467120812019346465597507003829592306983446249472</v>
       </c>
       <c r="D49" t="n">
-        <v>-269275090548800125783351093393065240111841996288558670418077024256</v>
+        <v>-636443918721047053064876029910312098727775252738851660227604838875136</v>
       </c>
       <c r="E49" t="n">
-        <v>176069517897779863694683934779450929411048898392242155495364755456</v>
+        <v>416148310301581559583467120812019346465597507003829592306983446249472</v>
       </c>
       <c r="F49" t="n">
-        <v>269275090548800125783351093393065240111841996288558670418077024256</v>
+        <v>636443918721047053064876029910312098727775252738851660227604838875136</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>55654.3095738486</v>
+        <v>55995.2275527195</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
